--- a/data/human/toc.xlsx
+++ b/data/human/toc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardoostinelli/Documents/GitHub/LSR1_anhedonia_H/data/human/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennett\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E88DD09-E345-F047-B8C0-4B3BFCF59D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD676474-21A7-41B9-9E4F-BB03C9D0F923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1840" windowWidth="29800" windowHeight="16980" xr2:uid="{61ADF396-BB31-1F4C-9909-04BF21E1C890}"/>
+    <workbookView xWindow="30300" yWindow="2010" windowWidth="27090" windowHeight="12735" xr2:uid="{61ADF396-BB31-1F4C-9909-04BF21E1C890}"/>
   </bookViews>
   <sheets>
     <sheet name="toc_woa" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="342">
   <si>
     <t>Author (Year)</t>
   </si>
@@ -1019,13 +1019,40 @@
   </si>
   <si>
     <t>Isocarboxazid up to 80mg</t>
+  </si>
+  <si>
+    <t>Clayton (2006a)</t>
+  </si>
+  <si>
+    <t>Clayton (2006b)</t>
+  </si>
+  <si>
+    <t>Major Depressive Disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 weeks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 weeks </t>
+  </si>
+  <si>
+    <t>Bupropion</t>
+  </si>
+  <si>
+    <t>300mg to 450mg</t>
+  </si>
+  <si>
+    <t>323mg</t>
+  </si>
+  <si>
+    <t>309mg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1163,6 +1190,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1912,21 +1945,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FA754B-276C-D14C-B6A7-BF427E08ACB2}">
-  <dimension ref="A1:Q140"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.4609375" customWidth="1"/>
+    <col min="3" max="3" width="18.69140625" customWidth="1"/>
+    <col min="5" max="5" width="22.3046875" customWidth="1"/>
+    <col min="8" max="8" width="26.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +2015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2032,7 +2068,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2085,7 +2121,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2138,7 +2174,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2191,7 +2227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2244,7 +2280,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2297,7 +2333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2350,7 +2386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2403,7 +2439,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2456,7 +2492,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -2509,7 +2545,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2562,7 +2598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2615,7 +2651,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2668,7 +2704,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2721,7 +2757,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -2774,7 +2810,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2827,7 +2863,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -2880,7 +2916,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2933,7 +2969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2986,7 +3022,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -3039,7 +3075,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="18" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>269</v>
       </c>
@@ -3092,7 +3128,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="18" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>269</v>
       </c>
@@ -3145,7 +3181,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -3198,7 +3234,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -3251,7 +3287,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -3304,7 +3340,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -3357,9 +3393,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -3371,28 +3407,28 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>336</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="I28">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="J28">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K28">
-        <v>38.5</v>
-      </c>
-      <c r="L28" t="s">
-        <v>83</v>
+        <v>36.5</v>
+      </c>
+      <c r="L28">
+        <v>12.2</v>
       </c>
       <c r="M28" t="s">
         <v>29</v>
@@ -3401,18 +3437,18 @@
         <v>21</v>
       </c>
       <c r="O28" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="Q28" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -3424,28 +3460,28 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>336</v>
       </c>
       <c r="H29" t="s">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="I29">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="J29">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="K29">
-        <v>38.1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>78</v>
+        <v>35.1</v>
+      </c>
+      <c r="L29">
+        <v>11.8</v>
       </c>
       <c r="M29" t="s">
         <v>29</v>
@@ -3454,18 +3490,18 @@
         <v>21</v>
       </c>
       <c r="O29" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="P29" t="s">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="Q29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -3477,28 +3513,28 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>336</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="I30">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J30">
-        <v>92</v>
-      </c>
-      <c r="K30" s="3">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="L30" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+      <c r="K30">
+        <v>37</v>
+      </c>
+      <c r="L30">
+        <v>12.5</v>
       </c>
       <c r="M30" t="s">
         <v>29</v>
@@ -3507,18 +3543,18 @@
         <v>21</v>
       </c>
       <c r="O30" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="P30" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="Q30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
@@ -3530,28 +3566,28 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>337</v>
       </c>
       <c r="H31" t="s">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="I31">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J31">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="K31">
-        <v>36.6</v>
-      </c>
-      <c r="L31" t="s">
-        <v>87</v>
+        <v>37</v>
+      </c>
+      <c r="L31">
+        <v>10.7</v>
       </c>
       <c r="M31" t="s">
         <v>29</v>
@@ -3560,7 +3596,7 @@
         <v>21</v>
       </c>
       <c r="O31" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="P31" t="s">
         <v>262</v>
@@ -3569,24 +3605,24 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
         <v>262</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
         <v>48</v>
@@ -3595,19 +3631,19 @@
         <v>19</v>
       </c>
       <c r="I32">
-        <v>35</v>
-      </c>
-      <c r="J32" t="s">
-        <v>262</v>
-      </c>
-      <c r="K32" t="s">
-        <v>262</v>
+        <v>124</v>
+      </c>
+      <c r="J32">
+        <v>73</v>
+      </c>
+      <c r="K32">
+        <v>38.5</v>
       </c>
       <c r="L32" t="s">
-        <v>262</v>
+        <v>83</v>
       </c>
       <c r="M32" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N32" t="s">
         <v>21</v>
@@ -3622,183 +3658,183 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
         <v>262</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
         <v>48</v>
       </c>
       <c r="H33" t="s">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="I33">
-        <v>36</v>
-      </c>
-      <c r="J33" t="s">
-        <v>262</v>
-      </c>
-      <c r="K33" t="s">
-        <v>262</v>
+        <v>122</v>
+      </c>
+      <c r="J33">
+        <v>68</v>
+      </c>
+      <c r="K33">
+        <v>38.1</v>
       </c>
       <c r="L33" t="s">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="M33" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N33" t="s">
         <v>21</v>
       </c>
       <c r="O33" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="P33" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="Q33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
         <v>262</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s">
         <v>48</v>
       </c>
       <c r="H34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34">
+        <v>152</v>
+      </c>
+      <c r="J34">
         <v>92</v>
       </c>
-      <c r="I34">
-        <v>35</v>
-      </c>
-      <c r="J34" t="s">
-        <v>262</v>
-      </c>
-      <c r="K34" t="s">
-        <v>262</v>
+      <c r="K34" s="3">
+        <v>36.700000000000003</v>
       </c>
       <c r="L34" t="s">
-        <v>262</v>
+        <v>86</v>
       </c>
       <c r="M34" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N34" t="s">
         <v>21</v>
       </c>
       <c r="O34" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="P34" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="Q34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
         <v>262</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
         <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>94</v>
+        <v>307</v>
       </c>
       <c r="I35">
-        <v>33</v>
-      </c>
-      <c r="J35" t="s">
-        <v>262</v>
-      </c>
-      <c r="K35" t="s">
-        <v>262</v>
+        <v>150</v>
+      </c>
+      <c r="J35">
+        <v>95</v>
+      </c>
+      <c r="K35">
+        <v>36.6</v>
       </c>
       <c r="L35" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="M35" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N35" t="s">
         <v>21</v>
       </c>
       <c r="O35" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="P35" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="Q35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
         <v>262</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
         <v>48</v>
@@ -3807,19 +3843,19 @@
         <v>19</v>
       </c>
       <c r="I36">
-        <v>121</v>
-      </c>
-      <c r="J36">
-        <v>61</v>
-      </c>
-      <c r="K36">
-        <v>37.4</v>
+        <v>35</v>
+      </c>
+      <c r="J36" t="s">
+        <v>262</v>
+      </c>
+      <c r="K36" t="s">
+        <v>262</v>
       </c>
       <c r="L36" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N36" t="s">
         <v>21</v>
@@ -3834,207 +3870,207 @@
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
         <v>262</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
         <v>48</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>306</v>
+      <c r="H37" t="s">
+        <v>90</v>
       </c>
       <c r="I37">
-        <v>120</v>
-      </c>
-      <c r="J37">
-        <v>61</v>
-      </c>
-      <c r="K37">
-        <v>35.9</v>
+        <v>36</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
       </c>
       <c r="L37" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="M37" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N37" t="s">
         <v>21</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>99</v>
+      <c r="O37" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37" t="s">
+        <v>91</v>
       </c>
       <c r="Q37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
         <v>262</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I38">
-        <v>68</v>
-      </c>
-      <c r="J38">
-        <v>37</v>
-      </c>
-      <c r="K38">
-        <v>41.9</v>
+        <v>35</v>
+      </c>
+      <c r="J38" t="s">
+        <v>262</v>
+      </c>
+      <c r="K38" t="s">
+        <v>262</v>
       </c>
       <c r="L38" t="s">
         <v>262</v>
       </c>
       <c r="M38" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N38" t="s">
         <v>21</v>
       </c>
       <c r="O38" t="s">
-        <v>262</v>
+        <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>262</v>
+        <v>93</v>
       </c>
       <c r="Q38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" t="s">
         <v>262</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
+      </c>
+      <c r="G39" t="s">
+        <v>48</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="I39">
-        <v>62</v>
-      </c>
-      <c r="J39">
-        <v>35</v>
-      </c>
-      <c r="K39">
-        <v>41.9</v>
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>262</v>
+      </c>
+      <c r="K39" t="s">
+        <v>262</v>
       </c>
       <c r="L39" t="s">
         <v>262</v>
       </c>
       <c r="M39" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N39" t="s">
         <v>21</v>
       </c>
       <c r="O39" t="s">
-        <v>262</v>
+        <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>262</v>
+        <v>95</v>
       </c>
       <c r="Q39" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
       </c>
       <c r="H40" t="s">
         <v>19</v>
       </c>
       <c r="I40">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="J40">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>14.7</v>
-      </c>
-      <c r="L40">
-        <v>1.6</v>
+        <v>37.4</v>
+      </c>
+      <c r="L40" t="s">
+        <v>97</v>
       </c>
       <c r="M40" t="s">
         <v>29</v>
       </c>
       <c r="N40" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="O40" t="s">
         <v>262</v>
@@ -4046,68 +4082,68 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I41">
+        <v>120</v>
+      </c>
+      <c r="J41">
         <v>61</v>
       </c>
-      <c r="H41" t="s">
-        <v>308</v>
-      </c>
-      <c r="I41">
-        <v>152</v>
-      </c>
-      <c r="J41">
-        <v>93</v>
-      </c>
       <c r="K41">
-        <v>14.8</v>
-      </c>
-      <c r="L41">
-        <v>1.62</v>
+        <v>35.9</v>
+      </c>
+      <c r="L41" t="s">
+        <v>98</v>
       </c>
       <c r="M41" t="s">
         <v>29</v>
       </c>
       <c r="N41" t="s">
-        <v>49</v>
-      </c>
-      <c r="O41" t="s">
-        <v>109</v>
-      </c>
-      <c r="P41" t="s">
-        <v>262</v>
+        <v>21</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="Q41" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -4116,22 +4152,22 @@
         <v>262</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>308</v>
+        <v>104</v>
       </c>
       <c r="I42">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="J42">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="K42">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="L42" t="s">
         <v>262</v>
@@ -4140,27 +4176,27 @@
         <v>29</v>
       </c>
       <c r="N42" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="O42" t="s">
-        <v>109</v>
+        <v>262</v>
       </c>
       <c r="P42" t="s">
-        <v>109</v>
+        <v>262</v>
       </c>
       <c r="Q42" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -4169,22 +4205,22 @@
         <v>262</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
         <v>19</v>
       </c>
       <c r="I43">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="J43">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K43">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="L43" t="s">
         <v>262</v>
@@ -4193,7 +4229,7 @@
         <v>29</v>
       </c>
       <c r="N43" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="O43" t="s">
         <v>262</v>
@@ -4205,15 +4241,15 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -4222,32 +4258,32 @@
         <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>112</v>
-      </c>
-      <c r="G44" t="s">
-        <v>35</v>
+        <v>108</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="H44" t="s">
         <v>19</v>
       </c>
       <c r="I44">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="J44">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="K44">
+        <v>14.7</v>
+      </c>
+      <c r="L44">
+        <v>1.6</v>
+      </c>
+      <c r="M44" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" t="s">
         <v>49</v>
       </c>
-      <c r="L44" t="s">
-        <v>113</v>
-      </c>
-      <c r="M44" t="s">
-        <v>262</v>
-      </c>
-      <c r="N44" t="s">
-        <v>21</v>
-      </c>
       <c r="O44" t="s">
         <v>262</v>
       </c>
@@ -4258,15 +4294,15 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -4275,51 +4311,51 @@
         <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
+        <v>108</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="H45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I45">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="J45">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>43.9</v>
-      </c>
-      <c r="L45" t="s">
-        <v>114</v>
+        <v>14.8</v>
+      </c>
+      <c r="L45">
+        <v>1.62</v>
       </c>
       <c r="M45" t="s">
         <v>29</v>
       </c>
       <c r="N45" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="O45" t="s">
-        <v>263</v>
+        <v>109</v>
       </c>
       <c r="P45" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="Q45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -4328,51 +4364,51 @@
         <v>262</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
-      </c>
-      <c r="G46" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>308</v>
       </c>
       <c r="I46">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="J46">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>64.7</v>
-      </c>
-      <c r="L46">
-        <v>7.6</v>
+        <v>42</v>
+      </c>
+      <c r="L46" t="s">
+        <v>262</v>
       </c>
       <c r="M46" t="s">
         <v>29</v>
       </c>
       <c r="N46" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="O46" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="P46" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="Q46" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -4381,31 +4417,31 @@
         <v>262</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" t="s">
-        <v>117</v>
+        <v>108</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H47" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I47">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="J47">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="K47">
-        <v>65.5</v>
-      </c>
-      <c r="L47" s="3">
-        <v>4.4000000000000004</v>
+        <v>42</v>
+      </c>
+      <c r="L47" t="s">
+        <v>262</v>
       </c>
       <c r="M47" t="s">
         <v>29</v>
       </c>
       <c r="N47" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="O47" t="s">
         <v>262</v>
@@ -4414,18 +4450,18 @@
         <v>262</v>
       </c>
       <c r="Q47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C48" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -4434,28 +4470,28 @@
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H48" t="s">
         <v>19</v>
       </c>
-      <c r="I48" t="s">
-        <v>262</v>
-      </c>
-      <c r="J48" t="s">
-        <v>262</v>
-      </c>
-      <c r="K48" t="s">
-        <v>262</v>
+      <c r="I48">
+        <v>22</v>
+      </c>
+      <c r="J48">
+        <v>19</v>
+      </c>
+      <c r="K48">
+        <v>49</v>
       </c>
       <c r="L48" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="M48" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="N48" t="s">
         <v>21</v>
@@ -4467,18 +4503,18 @@
         <v>262</v>
       </c>
       <c r="Q48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -4487,25 +4523,25 @@
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>104</v>
-      </c>
-      <c r="I49" t="s">
-        <v>262</v>
-      </c>
-      <c r="J49" t="s">
-        <v>262</v>
-      </c>
-      <c r="K49" t="s">
-        <v>262</v>
+        <v>309</v>
+      </c>
+      <c r="I49">
+        <v>44</v>
+      </c>
+      <c r="J49">
+        <v>30</v>
+      </c>
+      <c r="K49">
+        <v>43.9</v>
       </c>
       <c r="L49" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="M49" t="s">
         <v>29</v>
@@ -4514,51 +4550,51 @@
         <v>21</v>
       </c>
       <c r="O49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P49" t="s">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c r="Q49" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F50" t="s">
         <v>112</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="H50" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="I50">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J50">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K50">
-        <v>36.4</v>
-      </c>
-      <c r="L50" t="s">
-        <v>124</v>
+        <v>64.7</v>
+      </c>
+      <c r="L50">
+        <v>7.6</v>
       </c>
       <c r="M50" t="s">
         <v>29</v>
@@ -4567,7 +4603,7 @@
         <v>21</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="P50" t="s">
         <v>262</v>
@@ -4576,77 +4612,77 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F51" t="s">
         <v>112</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="H51" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="I51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J51">
         <v>13</v>
       </c>
-      <c r="K51" s="3">
-        <v>37.799999999999898</v>
-      </c>
-      <c r="L51" t="s">
-        <v>126</v>
+      <c r="K51">
+        <v>65.5</v>
+      </c>
+      <c r="L51" s="3">
+        <v>4.4000000000000004</v>
       </c>
       <c r="M51" t="s">
         <v>29</v>
       </c>
       <c r="N51" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="O51" t="s">
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="P51" t="s">
         <v>262</v>
       </c>
       <c r="Q51" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s">
         <v>18</v>
@@ -4654,17 +4690,17 @@
       <c r="H52" t="s">
         <v>19</v>
       </c>
-      <c r="I52">
-        <v>47</v>
-      </c>
-      <c r="J52">
-        <v>31</v>
-      </c>
-      <c r="K52">
-        <v>37.4</v>
+      <c r="I52" t="s">
+        <v>262</v>
+      </c>
+      <c r="J52" t="s">
+        <v>262</v>
+      </c>
+      <c r="K52" t="s">
+        <v>262</v>
       </c>
       <c r="L52" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="M52" t="s">
         <v>29</v>
@@ -4679,48 +4715,48 @@
         <v>262</v>
       </c>
       <c r="Q52" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
         <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53">
-        <v>43</v>
-      </c>
-      <c r="J53">
-        <v>20</v>
-      </c>
-      <c r="K53">
-        <v>51.9</v>
+        <v>104</v>
+      </c>
+      <c r="I53" t="s">
+        <v>262</v>
+      </c>
+      <c r="J53" t="s">
+        <v>262</v>
+      </c>
+      <c r="K53" t="s">
+        <v>262</v>
       </c>
       <c r="L53" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="M53" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N53" t="s">
         <v>21</v>
@@ -4732,15 +4768,15 @@
         <v>262</v>
       </c>
       <c r="Q53" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
         <v>59</v>
@@ -4749,51 +4785,51 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="F54" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54">
+        <v>52</v>
+      </c>
+      <c r="J54">
         <v>35</v>
       </c>
-      <c r="H54" t="s">
-        <v>133</v>
-      </c>
-      <c r="I54">
-        <v>45</v>
-      </c>
-      <c r="J54">
-        <v>18</v>
-      </c>
       <c r="K54">
-        <v>52.4</v>
+        <v>36.4</v>
       </c>
       <c r="L54" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="M54" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N54" t="s">
         <v>21</v>
       </c>
       <c r="O54" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="P54" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="Q54" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
         <v>59</v>
@@ -4802,48 +4838,48 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I55">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J55">
-        <v>18</v>
-      </c>
-      <c r="K55">
-        <v>47.5</v>
+        <v>13</v>
+      </c>
+      <c r="K55" s="3">
+        <v>37.799999999999898</v>
       </c>
       <c r="L55" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="M55" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N55" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="O55" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>23</v>
+        <v>262</v>
       </c>
       <c r="Q55" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
         <v>25</v>
@@ -4852,37 +4888,37 @@
         <v>59</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F56" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="G56" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H56" t="s">
         <v>19</v>
       </c>
       <c r="I56">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="J56">
-        <v>80</v>
-      </c>
-      <c r="K56" s="3">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="L56">
-        <v>11.6</v>
+        <v>31</v>
+      </c>
+      <c r="K56">
+        <v>37.4</v>
+      </c>
+      <c r="L56" t="s">
+        <v>128</v>
       </c>
       <c r="M56" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="N56" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="O56" t="s">
         <v>262</v>
@@ -4894,51 +4930,51 @@
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="I57">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="J57">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="K57">
-        <v>39.6</v>
-      </c>
-      <c r="L57">
-        <v>11.9</v>
+        <v>51.9</v>
+      </c>
+      <c r="L57" t="s">
+        <v>132</v>
       </c>
       <c r="M57" t="s">
         <v>20</v>
       </c>
       <c r="N57" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="O57" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="P57" t="s">
         <v>262</v>
@@ -4947,113 +4983,113 @@
         <v>262</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H58" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I58">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="J58">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="K58">
-        <v>39.6</v>
-      </c>
-      <c r="L58">
-        <v>10.4</v>
+        <v>52.4</v>
+      </c>
+      <c r="L58" t="s">
+        <v>134</v>
       </c>
       <c r="M58" t="s">
         <v>20</v>
       </c>
       <c r="N58" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="O58" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="P58" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="Q58" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
         <v>59</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H59" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I59">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="J59">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K59">
-        <v>39.9</v>
-      </c>
-      <c r="L59">
-        <v>11.4</v>
+        <v>47.5</v>
+      </c>
+      <c r="L59" t="s">
+        <v>137</v>
       </c>
       <c r="M59" t="s">
         <v>20</v>
       </c>
       <c r="N59" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="O59" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="P59" t="s">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="Q59" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>138</v>
       </c>
@@ -5076,28 +5112,28 @@
         <v>48</v>
       </c>
       <c r="H60" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="I60">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J60">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="K60" s="3">
-        <v>38.799999999999898</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="L60">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="M60" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="N60" t="s">
         <v>262</v>
       </c>
       <c r="O60" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="P60" t="s">
         <v>262</v>
@@ -5106,9 +5142,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B61" t="s">
         <v>25</v>
@@ -5117,51 +5153,51 @@
         <v>59</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="G61" t="s">
         <v>48</v>
       </c>
-      <c r="H61" s="7" t="s">
-        <v>276</v>
+      <c r="H61" t="s">
+        <v>139</v>
       </c>
       <c r="I61">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="J61">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>39.1</v>
+        <v>39.6</v>
       </c>
       <c r="L61">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="M61" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N61" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="O61" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P61" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="Q61" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -5170,40 +5206,40 @@
         <v>59</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="G62" t="s">
         <v>48</v>
       </c>
-      <c r="H62" s="7" t="s">
-        <v>19</v>
+      <c r="H62" t="s">
+        <v>141</v>
       </c>
       <c r="I62">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="J62">
-        <v>99</v>
-      </c>
-      <c r="K62" s="3">
-        <v>38.200000000000003</v>
+        <v>65</v>
+      </c>
+      <c r="K62">
+        <v>39.6</v>
       </c>
       <c r="L62">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="M62" t="s">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="N62" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="O62" t="s">
-        <v>262</v>
+        <v>142</v>
       </c>
       <c r="P62" t="s">
         <v>262</v>
@@ -5212,9 +5248,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -5223,93 +5259,93 @@
         <v>59</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="G63" t="s">
         <v>48</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>277</v>
+      <c r="H63" t="s">
+        <v>143</v>
       </c>
       <c r="I63">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="J63">
-        <v>98</v>
-      </c>
-      <c r="K63" s="3">
-        <v>37.200000000000003</v>
+        <v>70</v>
+      </c>
+      <c r="K63">
+        <v>39.9</v>
       </c>
       <c r="L63">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="M63" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N63" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="O63" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="P63" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="Q63" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F64" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="G64" t="s">
         <v>48</v>
       </c>
-      <c r="H64" s="7" t="s">
-        <v>19</v>
+      <c r="H64" t="s">
+        <v>144</v>
       </c>
       <c r="I64">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K64" s="3">
-        <v>18.100000000000001</v>
+        <v>38.799999999999898</v>
       </c>
       <c r="L64">
-        <v>6.2</v>
+        <v>11.7</v>
       </c>
       <c r="M64" t="s">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="N64" t="s">
         <v>262</v>
       </c>
       <c r="O64" t="s">
-        <v>262</v>
+        <v>145</v>
       </c>
       <c r="P64" t="s">
         <v>262</v>
@@ -5318,267 +5354,277 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>256</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
         <v>48</v>
       </c>
       <c r="H65" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I65">
+        <v>152</v>
+      </c>
+      <c r="J65">
+        <v>90</v>
+      </c>
+      <c r="K65">
+        <v>39.1</v>
+      </c>
+      <c r="L65">
+        <v>12.2</v>
+      </c>
+      <c r="M65" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" t="s">
+        <v>147</v>
+      </c>
+      <c r="P65" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66">
+        <v>154</v>
+      </c>
+      <c r="J66">
+        <v>99</v>
+      </c>
+      <c r="K66" s="3">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="L66">
+        <v>11.4</v>
+      </c>
+      <c r="M66" t="s">
+        <v>262</v>
+      </c>
+      <c r="N66" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" t="s">
+        <v>262</v>
+      </c>
+      <c r="P66" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I67">
+        <v>150</v>
+      </c>
+      <c r="J67">
+        <v>98</v>
+      </c>
+      <c r="K67" s="3">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="L67">
+        <v>11.3</v>
+      </c>
+      <c r="M67" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" t="s">
+        <v>148</v>
+      </c>
+      <c r="P67" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>256</v>
+      </c>
+      <c r="F68" t="s">
+        <v>152</v>
+      </c>
+      <c r="G68" t="s">
+        <v>48</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68">
+        <v>28</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L68">
+        <v>6.2</v>
+      </c>
+      <c r="M68" t="s">
+        <v>262</v>
+      </c>
+      <c r="N68" t="s">
+        <v>262</v>
+      </c>
+      <c r="O68" t="s">
+        <v>262</v>
+      </c>
+      <c r="P68" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>256</v>
+      </c>
+      <c r="F69" t="s">
+        <v>152</v>
+      </c>
+      <c r="G69" t="s">
+        <v>48</v>
+      </c>
+      <c r="H69" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="I65">
+      <c r="I69">
         <v>29</v>
       </c>
-      <c r="J65">
+      <c r="J69">
         <v>0</v>
       </c>
-      <c r="K65">
+      <c r="K69">
         <v>21.2</v>
       </c>
-      <c r="L65">
+      <c r="L69">
         <v>8</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M69" t="s">
         <v>20</v>
       </c>
-      <c r="N65" t="s">
-        <v>21</v>
-      </c>
-      <c r="O65" t="s">
+      <c r="N69" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" t="s">
         <v>153</v>
       </c>
-      <c r="P65" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="P69" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1">
+      <c r="A70" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" s="4">
-        <v>2</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="4">
-        <v>199</v>
-      </c>
-      <c r="J66" s="4">
-        <v>142</v>
-      </c>
-      <c r="K66" s="4">
-        <v>41.8</v>
-      </c>
-      <c r="L66" s="4">
-        <v>11.56</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O66" t="s">
-        <v>262</v>
-      </c>
-      <c r="P66" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="4">
-        <v>2</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I67" s="4">
-        <v>188</v>
-      </c>
-      <c r="J67" s="4">
-        <v>138</v>
-      </c>
-      <c r="K67" s="4">
-        <v>41.8</v>
-      </c>
-      <c r="L67" s="4">
-        <v>11.68</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="4">
-        <v>2</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I68" s="4">
-        <v>189</v>
-      </c>
-      <c r="J68" s="4">
-        <v>125</v>
-      </c>
-      <c r="K68" s="4">
-        <v>44.5</v>
-      </c>
-      <c r="L68" s="4">
-        <v>10.79</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O68" t="s">
-        <v>262</v>
-      </c>
-      <c r="P68" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I69" s="4">
-        <v>204</v>
-      </c>
-      <c r="J69" s="4">
-        <v>127</v>
-      </c>
-      <c r="K69" s="4">
-        <v>45.6</v>
-      </c>
-      <c r="L69" s="4">
-        <v>11.76</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q69" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>59</v>
@@ -5591,22 +5637,22 @@
         <v>112</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I70" s="4">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J70" s="4">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K70" s="4">
-        <v>71.3</v>
+        <v>41.8</v>
       </c>
       <c r="L70" s="4">
-        <v>5.9</v>
+        <v>11.56</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>29</v>
@@ -5624,12 +5670,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>59</v>
@@ -5642,22 +5688,22 @@
         <v>112</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>296</v>
       </c>
       <c r="I71" s="4">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="J71" s="4">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K71" s="4">
-        <v>70.900000000000006</v>
+        <v>41.8</v>
       </c>
       <c r="L71" s="4">
-        <v>5.6</v>
+        <v>11.68</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>29</v>
@@ -5668,449 +5714,439 @@
       <c r="O71" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="P71" s="4" t="s">
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1">
+      <c r="A72" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I72" s="4">
+        <v>189</v>
+      </c>
+      <c r="J72" s="4">
+        <v>125</v>
+      </c>
+      <c r="K72" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="L72" s="4">
+        <v>10.79</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" t="s">
+        <v>262</v>
+      </c>
+      <c r="P72" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I73" s="4">
+        <v>204</v>
+      </c>
+      <c r="J73" s="4">
+        <v>127</v>
+      </c>
+      <c r="K73" s="4">
+        <v>45.6</v>
+      </c>
+      <c r="L73" s="4">
+        <v>11.76</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q71" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="P73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1">
+      <c r="A74" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="4">
+        <v>207</v>
+      </c>
+      <c r="J74" s="4">
+        <v>144</v>
+      </c>
+      <c r="K74" s="4">
+        <v>71.3</v>
+      </c>
+      <c r="L74" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" t="s">
+        <v>262</v>
+      </c>
+      <c r="P74" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="2" customFormat="1" ht="17" customHeight="1">
+      <c r="A75" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I75" s="4">
+        <v>211</v>
+      </c>
+      <c r="J75" s="4">
+        <v>157</v>
+      </c>
+      <c r="K75" s="4">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="L75" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" t="s">
         <v>154</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" t="s">
         <v>25</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C76" t="s">
         <v>155</v>
       </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
-        <v>262</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>262</v>
+      </c>
+      <c r="F76" t="s">
         <v>112</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G76" t="s">
         <v>18</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H76" t="s">
         <v>278</v>
       </c>
-      <c r="I72">
+      <c r="I76">
         <v>156</v>
       </c>
-      <c r="J72">
+      <c r="J76">
         <v>95</v>
       </c>
-      <c r="K72">
+      <c r="K76">
         <v>42.1</v>
       </c>
-      <c r="L72">
+      <c r="L76">
         <v>12.8</v>
       </c>
-      <c r="M72" t="s">
-        <v>262</v>
-      </c>
-      <c r="N72" t="s">
-        <v>21</v>
-      </c>
-      <c r="O72" s="1" t="s">
+      <c r="M76" t="s">
+        <v>262</v>
+      </c>
+      <c r="N76" t="s">
+        <v>21</v>
+      </c>
+      <c r="O76" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P72" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="P76" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B77" t="s">
         <v>25</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C77" t="s">
         <v>155</v>
       </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>262</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>262</v>
+      </c>
+      <c r="F77" t="s">
         <v>112</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H77" t="s">
         <v>19</v>
       </c>
-      <c r="I73">
+      <c r="I77">
         <v>162</v>
       </c>
-      <c r="J73">
+      <c r="J77">
         <v>117</v>
       </c>
-      <c r="K73">
+      <c r="K77">
         <v>41.2</v>
       </c>
-      <c r="L73">
+      <c r="L77">
         <v>13.77</v>
       </c>
-      <c r="M73" t="s">
-        <v>262</v>
-      </c>
-      <c r="N73" t="s">
-        <v>21</v>
-      </c>
-      <c r="O73" t="s">
-        <v>262</v>
-      </c>
-      <c r="P73" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="M77" t="s">
+        <v>262</v>
+      </c>
+      <c r="N77" t="s">
+        <v>21</v>
+      </c>
+      <c r="O77" t="s">
+        <v>262</v>
+      </c>
+      <c r="P77" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="s">
         <v>157</v>
       </c>
-      <c r="B74" t="s">
-        <v>262</v>
-      </c>
-      <c r="C74" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="B78" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" t="s">
+        <v>262</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
         <v>256</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F78" t="s">
         <v>158</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G78" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H78" t="s">
         <v>311</v>
       </c>
-      <c r="I74">
+      <c r="I78">
         <v>36</v>
       </c>
-      <c r="J74">
+      <c r="J78">
         <v>25</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K78" s="3">
         <v>38.700000000000003</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L78" s="3">
         <v>9.7799999999999905</v>
       </c>
-      <c r="M74" t="s">
-        <v>262</v>
-      </c>
-      <c r="N74" t="s">
-        <v>262</v>
-      </c>
-      <c r="O74" t="s">
+      <c r="M78" t="s">
+        <v>262</v>
+      </c>
+      <c r="N78" t="s">
+        <v>262</v>
+      </c>
+      <c r="O78" t="s">
         <v>159</v>
       </c>
-      <c r="P74" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q74" t="s">
+      <c r="P78" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q78" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="79" spans="1:17">
+      <c r="A79" t="s">
         <v>157</v>
       </c>
-      <c r="B75" t="s">
-        <v>262</v>
-      </c>
-      <c r="C75" t="s">
-        <v>262</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="B79" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
         <v>256</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F79" t="s">
         <v>158</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G79" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H79" t="s">
         <v>19</v>
       </c>
-      <c r="I75">
+      <c r="I79">
         <v>36</v>
       </c>
-      <c r="J75">
+      <c r="J79">
         <v>22</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K79" s="3">
         <v>40.299999999999898</v>
       </c>
-      <c r="L75">
+      <c r="L79">
         <v>10.08</v>
       </c>
-      <c r="M75" t="s">
-        <v>262</v>
-      </c>
-      <c r="N75" t="s">
-        <v>262</v>
-      </c>
-      <c r="O75" t="s">
-        <v>262</v>
-      </c>
-      <c r="P75" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="M79" t="s">
+        <v>262</v>
+      </c>
+      <c r="N79" t="s">
+        <v>262</v>
+      </c>
+      <c r="O79" t="s">
+        <v>262</v>
+      </c>
+      <c r="P79" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" s="2" customFormat="1">
+      <c r="A80" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B76" t="s">
-        <v>262</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D76" s="4">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s">
-        <v>262</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I76" s="4">
-        <v>139</v>
-      </c>
-      <c r="J76" s="4">
-        <v>96</v>
-      </c>
-      <c r="K76" s="4">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O76" t="s">
-        <v>262</v>
-      </c>
-      <c r="P76" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B77" t="s">
-        <v>262</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D77" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>262</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I77" s="4">
-        <v>135</v>
-      </c>
-      <c r="J77" s="4">
-        <v>89</v>
-      </c>
-      <c r="K77" s="4">
-        <v>40</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O77" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P77" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D78" s="4">
-        <v>3</v>
-      </c>
-      <c r="E78" t="s">
-        <v>262</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" s="4">
-        <v>186</v>
-      </c>
-      <c r="J78" s="4">
-        <v>85</v>
-      </c>
-      <c r="K78" s="4">
-        <v>37.9</v>
-      </c>
-      <c r="L78" s="4">
-        <v>11.09</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O78" t="s">
-        <v>262</v>
-      </c>
-      <c r="P78" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D79" s="4">
-        <v>3</v>
-      </c>
-      <c r="E79" t="s">
-        <v>262</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I79" s="4">
-        <v>190</v>
-      </c>
-      <c r="J79" s="4">
-        <v>92</v>
-      </c>
-      <c r="K79" s="4">
-        <v>36</v>
-      </c>
-      <c r="L79" s="4">
-        <v>10.42</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="P79" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>293</v>
+      <c r="B80" t="s">
+        <v>262</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D80" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
         <v>262</v>
@@ -6118,291 +6154,291 @@
       <c r="F80" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I80" s="4">
+        <v>139</v>
+      </c>
+      <c r="J80" s="4">
+        <v>96</v>
+      </c>
+      <c r="K80" s="4">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O80" t="s">
+        <v>262</v>
+      </c>
+      <c r="P80" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" s="2" customFormat="1">
+      <c r="A81" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B81" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>262</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I81" s="4">
+        <v>135</v>
+      </c>
+      <c r="J81" s="4">
+        <v>89</v>
+      </c>
+      <c r="K81" s="4">
+        <v>40</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="2" customFormat="1" ht="16" customHeight="1">
+      <c r="A82" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="4">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="4">
+        <v>186</v>
+      </c>
+      <c r="J82" s="4">
+        <v>85</v>
+      </c>
+      <c r="K82" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="L82" s="4">
+        <v>11.09</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O82" t="s">
+        <v>262</v>
+      </c>
+      <c r="P82" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" s="2" customFormat="1" ht="16" customHeight="1">
+      <c r="A83" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="4">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>262</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I83" s="4">
+        <v>190</v>
+      </c>
+      <c r="J83" s="4">
+        <v>92</v>
+      </c>
+      <c r="K83" s="4">
+        <v>36</v>
+      </c>
+      <c r="L83" s="4">
+        <v>10.42</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" s="2" customFormat="1" ht="16" customHeight="1">
+      <c r="A84" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="4">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>262</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I80" s="4">
+      <c r="I84" s="4">
         <v>188</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J84" s="4">
         <v>83</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K84" s="4">
         <v>37.5</v>
       </c>
-      <c r="L80" s="4">
+      <c r="L84" s="4">
         <v>10.96</v>
       </c>
-      <c r="M80" s="4" t="s">
+      <c r="M84" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O80" s="4" t="s">
+      <c r="N84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O84" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P80" s="4" t="s">
+      <c r="P84" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="Q80" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="Q84" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="s">
-        <v>262</v>
-      </c>
-      <c r="C81" t="s">
-        <v>262</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>262</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="B85" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>262</v>
+      </c>
+      <c r="F85" t="s">
         <v>17</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G85" t="s">
         <v>18</v>
-      </c>
-      <c r="H81" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81">
-        <v>9</v>
-      </c>
-      <c r="J81" t="s">
-        <v>262</v>
-      </c>
-      <c r="K81" t="s">
-        <v>262</v>
-      </c>
-      <c r="L81" t="s">
-        <v>262</v>
-      </c>
-      <c r="M81" t="s">
-        <v>29</v>
-      </c>
-      <c r="N81" t="s">
-        <v>21</v>
-      </c>
-      <c r="O81" t="s">
-        <v>262</v>
-      </c>
-      <c r="P81" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" t="s">
-        <v>262</v>
-      </c>
-      <c r="C82" t="s">
-        <v>262</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>262</v>
-      </c>
-      <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" t="s">
-        <v>22</v>
-      </c>
-      <c r="I82">
-        <v>11</v>
-      </c>
-      <c r="J82" t="s">
-        <v>262</v>
-      </c>
-      <c r="K82" t="s">
-        <v>262</v>
-      </c>
-      <c r="L82" t="s">
-        <v>262</v>
-      </c>
-      <c r="M82" t="s">
-        <v>29</v>
-      </c>
-      <c r="N82" t="s">
-        <v>21</v>
-      </c>
-      <c r="O82" t="s">
-        <v>262</v>
-      </c>
-      <c r="P82" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>164</v>
-      </c>
-      <c r="B83" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" t="s">
-        <v>262</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83">
-        <v>18</v>
-      </c>
-      <c r="J83">
-        <v>12</v>
-      </c>
-      <c r="K83">
-        <v>57</v>
-      </c>
-      <c r="L83" t="s">
-        <v>166</v>
-      </c>
-      <c r="M83" t="s">
-        <v>29</v>
-      </c>
-      <c r="N83" t="s">
-        <v>21</v>
-      </c>
-      <c r="O83" t="s">
-        <v>262</v>
-      </c>
-      <c r="P83" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" t="s">
-        <v>262</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>26</v>
-      </c>
-      <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" t="s">
-        <v>313</v>
-      </c>
-      <c r="I84">
-        <v>22</v>
-      </c>
-      <c r="J84">
-        <v>15</v>
-      </c>
-      <c r="K84">
-        <v>51</v>
-      </c>
-      <c r="L84" t="s">
-        <v>167</v>
-      </c>
-      <c r="M84" t="s">
-        <v>29</v>
-      </c>
-      <c r="N84" t="s">
-        <v>21</v>
-      </c>
-      <c r="O84" t="s">
-        <v>266</v>
-      </c>
-      <c r="P84" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C85" t="s">
-        <v>59</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85" t="s">
-        <v>262</v>
-      </c>
-      <c r="F85" t="s">
-        <v>112</v>
-      </c>
-      <c r="G85" t="s">
-        <v>161</v>
       </c>
       <c r="H85" t="s">
         <v>19</v>
       </c>
       <c r="I85">
-        <v>126</v>
-      </c>
-      <c r="J85">
-        <v>46</v>
-      </c>
-      <c r="K85">
-        <v>41.9</v>
-      </c>
-      <c r="L85">
-        <v>11.79</v>
+        <v>9</v>
+      </c>
+      <c r="J85" t="s">
+        <v>262</v>
+      </c>
+      <c r="K85" t="s">
+        <v>262</v>
+      </c>
+      <c r="L85" t="s">
+        <v>262</v>
       </c>
       <c r="M85" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N85" t="s">
         <v>21</v>
@@ -6417,15 +6453,15 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>168</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>295</v>
+        <v>162</v>
+      </c>
+      <c r="B86" t="s">
+        <v>262</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -6434,81 +6470,81 @@
         <v>262</v>
       </c>
       <c r="F86" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="I86">
-        <v>134</v>
-      </c>
-      <c r="J86">
-        <v>51</v>
-      </c>
-      <c r="K86">
-        <v>43</v>
-      </c>
-      <c r="L86">
-        <v>12.07</v>
+        <v>11</v>
+      </c>
+      <c r="J86" t="s">
+        <v>262</v>
+      </c>
+      <c r="K86" t="s">
+        <v>262</v>
+      </c>
+      <c r="L86" t="s">
+        <v>262</v>
       </c>
       <c r="M86" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N86" t="s">
         <v>21</v>
       </c>
-      <c r="O86" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>170</v>
+      <c r="O86" t="s">
+        <v>262</v>
+      </c>
+      <c r="P86" t="s">
+        <v>262</v>
       </c>
       <c r="Q86" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="H87" t="s">
         <v>19</v>
       </c>
       <c r="I87">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="J87">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="K87">
-        <v>41.8</v>
-      </c>
-      <c r="L87">
-        <v>10.89</v>
+        <v>57</v>
+      </c>
+      <c r="L87" t="s">
+        <v>166</v>
       </c>
       <c r="M87" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N87" t="s">
         <v>21</v>
@@ -6523,98 +6559,98 @@
         <v>262</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
-        <v>171</v>
-      </c>
-      <c r="B88" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="C88" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" t="s">
+        <v>313</v>
+      </c>
+      <c r="I88">
+        <v>22</v>
+      </c>
+      <c r="J88">
+        <v>15</v>
+      </c>
+      <c r="K88">
+        <v>51</v>
+      </c>
+      <c r="L88" t="s">
+        <v>167</v>
+      </c>
+      <c r="M88" t="s">
+        <v>29</v>
+      </c>
+      <c r="N88" t="s">
+        <v>21</v>
+      </c>
+      <c r="O88" t="s">
+        <v>266</v>
+      </c>
+      <c r="P88" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C89" t="s">
         <v>59</v>
       </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88" t="s">
-        <v>262</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>262</v>
+      </c>
+      <c r="F89" t="s">
         <v>112</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G89" t="s">
         <v>161</v>
-      </c>
-      <c r="H88" t="s">
-        <v>315</v>
-      </c>
-      <c r="I88">
-        <v>171</v>
-      </c>
-      <c r="J88">
-        <v>54</v>
-      </c>
-      <c r="K88">
-        <v>42.4</v>
-      </c>
-      <c r="L88">
-        <v>11.64</v>
-      </c>
-      <c r="M88" t="s">
-        <v>20</v>
-      </c>
-      <c r="N88" t="s">
-        <v>21</v>
-      </c>
-      <c r="O88" t="s">
-        <v>173</v>
-      </c>
-      <c r="P88" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>174</v>
-      </c>
-      <c r="B89" t="s">
-        <v>262</v>
-      </c>
-      <c r="C89" t="s">
-        <v>175</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89" t="s">
-        <v>256</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
-      </c>
-      <c r="G89" t="s">
-        <v>18</v>
       </c>
       <c r="H89" t="s">
         <v>19</v>
       </c>
       <c r="I89">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="J89">
-        <v>14</v>
-      </c>
-      <c r="K89" s="3">
-        <v>37.700000000000003</v>
+        <v>46</v>
+      </c>
+      <c r="K89">
+        <v>41.9</v>
       </c>
       <c r="L89">
-        <v>8.9</v>
+        <v>11.79</v>
       </c>
       <c r="M89" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N89" t="s">
         <v>21</v>
@@ -6629,363 +6665,363 @@
         <v>262</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>174</v>
-      </c>
-      <c r="B90" t="s">
-        <v>262</v>
+        <v>168</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="G90" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="H90" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I90">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="J90">
-        <v>7</v>
-      </c>
-      <c r="K90" s="3">
-        <v>33.799999999999898</v>
-      </c>
-      <c r="L90" s="3">
-        <v>9.3000000000000007</v>
+        <v>51</v>
+      </c>
+      <c r="K90">
+        <v>43</v>
+      </c>
+      <c r="L90">
+        <v>12.07</v>
       </c>
       <c r="M90" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N90" t="s">
         <v>21</v>
       </c>
-      <c r="O90" t="s">
-        <v>177</v>
-      </c>
-      <c r="P90" t="s">
-        <v>30</v>
+      <c r="O90" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="Q90" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="H91" t="s">
         <v>19</v>
       </c>
       <c r="I91">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="J91">
-        <v>17</v>
-      </c>
-      <c r="K91" s="3">
-        <v>40.200000000000003</v>
+        <v>39</v>
+      </c>
+      <c r="K91">
+        <v>41.8</v>
       </c>
       <c r="L91">
-        <v>10.7</v>
+        <v>10.89</v>
       </c>
       <c r="M91" t="s">
+        <v>20</v>
+      </c>
+      <c r="N91" t="s">
+        <v>21</v>
+      </c>
+      <c r="O91" t="s">
+        <v>262</v>
+      </c>
+      <c r="P91" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>262</v>
+      </c>
+      <c r="F92" t="s">
+        <v>112</v>
+      </c>
+      <c r="G92" t="s">
+        <v>161</v>
+      </c>
+      <c r="H92" t="s">
+        <v>315</v>
+      </c>
+      <c r="I92">
+        <v>171</v>
+      </c>
+      <c r="J92">
+        <v>54</v>
+      </c>
+      <c r="K92">
+        <v>42.4</v>
+      </c>
+      <c r="L92">
+        <v>11.64</v>
+      </c>
+      <c r="M92" t="s">
+        <v>20</v>
+      </c>
+      <c r="N92" t="s">
+        <v>21</v>
+      </c>
+      <c r="O92" t="s">
+        <v>173</v>
+      </c>
+      <c r="P92" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" t="s">
+        <v>262</v>
+      </c>
+      <c r="C93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>256</v>
+      </c>
+      <c r="F93" t="s">
+        <v>176</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93">
+        <v>24</v>
+      </c>
+      <c r="J93">
+        <v>14</v>
+      </c>
+      <c r="K93" s="3">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="L93">
+        <v>8.9</v>
+      </c>
+      <c r="M93" t="s">
         <v>29</v>
       </c>
-      <c r="N91" t="s">
-        <v>262</v>
-      </c>
-      <c r="O91" t="s">
-        <v>262</v>
-      </c>
-      <c r="P91" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="N93" t="s">
+        <v>21</v>
+      </c>
+      <c r="O93" t="s">
+        <v>262</v>
+      </c>
+      <c r="P93" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" t="s">
+        <v>174</v>
+      </c>
+      <c r="B94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" t="s">
+        <v>175</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>256</v>
+      </c>
+      <c r="F94" t="s">
+        <v>176</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" t="s">
+        <v>316</v>
+      </c>
+      <c r="I94">
+        <v>15</v>
+      </c>
+      <c r="J94">
+        <v>7</v>
+      </c>
+      <c r="K94" s="3">
+        <v>33.799999999999898</v>
+      </c>
+      <c r="L94" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M94" t="s">
+        <v>29</v>
+      </c>
+      <c r="N94" t="s">
+        <v>21</v>
+      </c>
+      <c r="O94" t="s">
+        <v>177</v>
+      </c>
+      <c r="P94" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" t="s">
         <v>179</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B95" t="s">
         <v>25</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C95" t="s">
         <v>180</v>
       </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
         <v>26</v>
-      </c>
-      <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" t="s">
-        <v>317</v>
-      </c>
-      <c r="I92">
-        <v>22</v>
-      </c>
-      <c r="J92">
-        <v>16</v>
-      </c>
-      <c r="K92">
-        <v>45.2</v>
-      </c>
-      <c r="L92">
-        <v>12.3</v>
-      </c>
-      <c r="M92" t="s">
-        <v>29</v>
-      </c>
-      <c r="N92" t="s">
-        <v>21</v>
-      </c>
-      <c r="O92" t="s">
-        <v>262</v>
-      </c>
-      <c r="P92" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>181</v>
-      </c>
-      <c r="B93" t="s">
-        <v>182</v>
-      </c>
-      <c r="C93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93" t="s">
-        <v>26</v>
-      </c>
-      <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s">
-        <v>117</v>
-      </c>
-      <c r="H93" t="s">
-        <v>318</v>
-      </c>
-      <c r="I93">
-        <v>36</v>
-      </c>
-      <c r="J93">
-        <v>25</v>
-      </c>
-      <c r="K93" t="s">
-        <v>183</v>
-      </c>
-      <c r="L93" t="s">
-        <v>184</v>
-      </c>
-      <c r="M93" t="s">
-        <v>20</v>
-      </c>
-      <c r="N93" t="s">
-        <v>21</v>
-      </c>
-      <c r="O93" t="s">
-        <v>145</v>
-      </c>
-      <c r="P93" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>181</v>
-      </c>
-      <c r="B94" t="s">
-        <v>182</v>
-      </c>
-      <c r="C94" t="s">
-        <v>262</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94" t="s">
-        <v>26</v>
-      </c>
-      <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s">
-        <v>117</v>
-      </c>
-      <c r="H94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I94">
-        <v>35</v>
-      </c>
-      <c r="J94">
-        <v>25</v>
-      </c>
-      <c r="K94" t="s">
-        <v>185</v>
-      </c>
-      <c r="L94" t="s">
-        <v>186</v>
-      </c>
-      <c r="M94" t="s">
-        <v>20</v>
-      </c>
-      <c r="N94" t="s">
-        <v>21</v>
-      </c>
-      <c r="O94" t="s">
-        <v>262</v>
-      </c>
-      <c r="P94" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" t="s">
-        <v>262</v>
-      </c>
-      <c r="C95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95" t="s">
-        <v>262</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="I95">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J95">
-        <v>21</v>
-      </c>
-      <c r="K95" t="s">
-        <v>188</v>
-      </c>
-      <c r="L95" t="s">
-        <v>189</v>
+        <v>17</v>
+      </c>
+      <c r="K95" s="3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="L95">
+        <v>10.7</v>
       </c>
       <c r="M95" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N95" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="O95" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="P95" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="Q95" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B96" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="I96">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J96">
-        <v>18</v>
-      </c>
-      <c r="K96" t="s">
-        <v>191</v>
-      </c>
-      <c r="L96" t="s">
-        <v>192</v>
+        <v>16</v>
+      </c>
+      <c r="K96">
+        <v>45.2</v>
+      </c>
+      <c r="L96">
+        <v>12.3</v>
       </c>
       <c r="M96" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N96" t="s">
         <v>21</v>
@@ -6994,21 +7030,21 @@
         <v>262</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q96" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -7017,25 +7053,25 @@
         <v>26</v>
       </c>
       <c r="F97" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="H97" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I97">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J97">
-        <v>36</v>
-      </c>
-      <c r="K97" s="3">
-        <v>71.599999999999895</v>
-      </c>
-      <c r="L97">
-        <v>6.5</v>
+        <v>25</v>
+      </c>
+      <c r="K97" t="s">
+        <v>183</v>
+      </c>
+      <c r="L97" t="s">
+        <v>184</v>
       </c>
       <c r="M97" t="s">
         <v>20</v>
@@ -7044,24 +7080,24 @@
         <v>21</v>
       </c>
       <c r="O97" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q97" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C98" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -7070,25 +7106,25 @@
         <v>26</v>
       </c>
       <c r="F98" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="H98" t="s">
         <v>19</v>
       </c>
       <c r="I98">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="J98">
-        <v>47</v>
-      </c>
-      <c r="K98">
-        <v>71.3</v>
-      </c>
-      <c r="L98">
-        <v>6.6</v>
+        <v>25</v>
+      </c>
+      <c r="K98" t="s">
+        <v>185</v>
+      </c>
+      <c r="L98" t="s">
+        <v>186</v>
       </c>
       <c r="M98" t="s">
         <v>20</v>
@@ -7106,15 +7142,15 @@
         <v>262</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -7123,51 +7159,51 @@
         <v>262</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H99" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I99">
-        <v>33</v>
-      </c>
-      <c r="J99" t="s">
-        <v>262</v>
-      </c>
-      <c r="K99">
-        <v>38.9</v>
+        <v>35</v>
+      </c>
+      <c r="J99">
+        <v>21</v>
+      </c>
+      <c r="K99" t="s">
+        <v>188</v>
       </c>
       <c r="L99" t="s">
-        <v>262</v>
-      </c>
-      <c r="M99" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M99" t="s">
         <v>20</v>
       </c>
       <c r="N99" t="s">
         <v>21</v>
       </c>
       <c r="O99" t="s">
-        <v>199</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
+      </c>
+      <c r="P99" t="s">
+        <v>190</v>
       </c>
       <c r="Q99" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -7176,25 +7212,25 @@
         <v>262</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H100" t="s">
         <v>19</v>
       </c>
       <c r="I100">
-        <v>34</v>
-      </c>
-      <c r="J100" t="s">
-        <v>262</v>
-      </c>
-      <c r="K100">
-        <v>30.1</v>
+        <v>33</v>
+      </c>
+      <c r="J100">
+        <v>18</v>
+      </c>
+      <c r="K100" t="s">
+        <v>191</v>
       </c>
       <c r="L100" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="M100" t="s">
         <v>20</v>
@@ -7212,15 +7248,15 @@
         <v>262</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -7229,51 +7265,51 @@
         <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="G101" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="H101" t="s">
-        <v>321</v>
-      </c>
-      <c r="I101" t="s">
-        <v>262</v>
-      </c>
-      <c r="J101" t="s">
-        <v>262</v>
-      </c>
-      <c r="K101" t="s">
-        <v>262</v>
-      </c>
-      <c r="L101" t="s">
-        <v>262</v>
-      </c>
-      <c r="M101" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I101">
+        <v>63</v>
+      </c>
+      <c r="J101">
+        <v>36</v>
+      </c>
+      <c r="K101" s="3">
+        <v>71.599999999999895</v>
+      </c>
+      <c r="L101">
+        <v>6.5</v>
+      </c>
+      <c r="M101" t="s">
         <v>20</v>
       </c>
       <c r="N101" t="s">
         <v>21</v>
       </c>
       <c r="O101" t="s">
-        <v>199</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>204</v>
+        <v>142</v>
+      </c>
+      <c r="P101" t="s">
+        <v>142</v>
       </c>
       <c r="Q101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C102" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -7282,25 +7318,25 @@
         <v>26</v>
       </c>
       <c r="F102" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="G102" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="H102" t="s">
         <v>19</v>
       </c>
-      <c r="I102" t="s">
-        <v>262</v>
-      </c>
-      <c r="J102" t="s">
-        <v>262</v>
-      </c>
-      <c r="K102" t="s">
-        <v>262</v>
-      </c>
-      <c r="L102" t="s">
-        <v>262</v>
+      <c r="I102">
+        <v>67</v>
+      </c>
+      <c r="J102">
+        <v>47</v>
+      </c>
+      <c r="K102">
+        <v>71.3</v>
+      </c>
+      <c r="L102">
+        <v>6.6</v>
       </c>
       <c r="M102" t="s">
         <v>20</v>
@@ -7318,39 +7354,39 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B103" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G103" t="s">
         <v>18</v>
       </c>
       <c r="H103" t="s">
-        <v>36</v>
+        <v>321</v>
       </c>
       <c r="I103">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="J103" t="s">
         <v>262</v>
       </c>
-      <c r="K103" t="s">
-        <v>262</v>
+      <c r="K103">
+        <v>38.9</v>
       </c>
       <c r="L103" t="s">
         <v>262</v>
@@ -7361,34 +7397,34 @@
       <c r="N103" t="s">
         <v>21</v>
       </c>
-      <c r="O103" s="1" t="s">
-        <v>140</v>
+      <c r="O103" t="s">
+        <v>199</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q103" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C104" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="D104">
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G104" t="s">
         <v>18</v>
@@ -7397,13 +7433,13 @@
         <v>19</v>
       </c>
       <c r="I104">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J104" t="s">
         <v>262</v>
       </c>
-      <c r="K104" t="s">
-        <v>262</v>
+      <c r="K104">
+        <v>30.1</v>
       </c>
       <c r="L104" t="s">
         <v>262</v>
@@ -7424,15 +7460,15 @@
         <v>262</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B105" t="s">
         <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -7447,10 +7483,10 @@
         <v>203</v>
       </c>
       <c r="H105" t="s">
-        <v>19</v>
-      </c>
-      <c r="I105">
-        <v>111</v>
+        <v>321</v>
+      </c>
+      <c r="I105" t="s">
+        <v>262</v>
       </c>
       <c r="J105" t="s">
         <v>262</v>
@@ -7461,31 +7497,31 @@
       <c r="L105" t="s">
         <v>262</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N105" t="s">
         <v>21</v>
       </c>
       <c r="O105" t="s">
-        <v>262</v>
-      </c>
-      <c r="P105" t="s">
-        <v>262</v>
+        <v>199</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="Q105" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B106" t="s">
         <v>25</v>
       </c>
       <c r="C106" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -7500,125 +7536,125 @@
         <v>203</v>
       </c>
       <c r="H106" t="s">
-        <v>322</v>
-      </c>
-      <c r="I106">
-        <v>110</v>
-      </c>
-      <c r="J106">
-        <v>72</v>
+        <v>19</v>
+      </c>
+      <c r="I106" t="s">
+        <v>262</v>
+      </c>
+      <c r="J106" t="s">
+        <v>262</v>
       </c>
       <c r="K106" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="L106" t="s">
         <v>262</v>
       </c>
-      <c r="M106" s="1" t="s">
+      <c r="M106" t="s">
         <v>20</v>
       </c>
       <c r="N106" t="s">
         <v>21</v>
       </c>
-      <c r="O106" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>211</v>
+      <c r="O106" t="s">
+        <v>262</v>
+      </c>
+      <c r="P106" t="s">
+        <v>262</v>
       </c>
       <c r="Q106" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="F107" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="G107" t="s">
         <v>18</v>
       </c>
       <c r="H107" t="s">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="I107">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J107" t="s">
         <v>262</v>
       </c>
-      <c r="K107">
-        <v>43.1</v>
-      </c>
-      <c r="L107">
-        <v>15.12</v>
+      <c r="K107" t="s">
+        <v>262</v>
+      </c>
+      <c r="L107" t="s">
+        <v>262</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="N107" t="s">
         <v>21</v>
       </c>
-      <c r="O107" t="s">
-        <v>216</v>
-      </c>
-      <c r="P107" t="s">
-        <v>216</v>
+      <c r="O107" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="Q107" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B108" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="F108" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="G108" t="s">
         <v>18</v>
       </c>
       <c r="H108" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="I108">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J108" t="s">
         <v>262</v>
       </c>
-      <c r="K108">
-        <v>41.2</v>
-      </c>
-      <c r="L108">
-        <v>16.5</v>
+      <c r="K108" t="s">
+        <v>262</v>
+      </c>
+      <c r="L108" t="s">
+        <v>262</v>
       </c>
       <c r="M108" t="s">
         <v>20</v>
@@ -7627,51 +7663,51 @@
         <v>21</v>
       </c>
       <c r="O108" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="Q108" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C109" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="F109" t="s">
         <v>56</v>
       </c>
       <c r="G109" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="H109" t="s">
         <v>19</v>
       </c>
       <c r="I109">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="J109" t="s">
         <v>262</v>
       </c>
-      <c r="K109">
-        <v>38.9</v>
-      </c>
-      <c r="L109">
-        <v>10.1</v>
+      <c r="K109" t="s">
+        <v>262</v>
+      </c>
+      <c r="L109" t="s">
+        <v>262</v>
       </c>
       <c r="M109" t="s">
         <v>20</v>
@@ -7689,148 +7725,148 @@
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B110" t="s">
         <v>25</v>
       </c>
       <c r="C110" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G110" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="H110" t="s">
-        <v>19</v>
+        <v>322</v>
       </c>
       <c r="I110">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J110">
-        <v>69</v>
-      </c>
-      <c r="K110" s="3">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="L110">
-        <v>12.2</v>
-      </c>
-      <c r="M110" t="s">
+        <v>72</v>
+      </c>
+      <c r="K110" t="s">
+        <v>209</v>
+      </c>
+      <c r="L110" t="s">
+        <v>262</v>
+      </c>
+      <c r="M110" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N110" t="s">
         <v>21</v>
       </c>
-      <c r="O110" t="s">
-        <v>262</v>
-      </c>
-      <c r="P110" t="s">
-        <v>262</v>
+      <c r="O110" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="Q110" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C111" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G111" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I111">
-        <v>121</v>
-      </c>
-      <c r="J111">
-        <v>86</v>
-      </c>
-      <c r="K111" s="3">
-        <v>38.299999999999997</v>
+        <v>21</v>
+      </c>
+      <c r="J111" t="s">
+        <v>262</v>
+      </c>
+      <c r="K111">
+        <v>43.1</v>
       </c>
       <c r="L111">
-        <v>11</v>
-      </c>
-      <c r="M111" t="s">
-        <v>20</v>
+        <v>15.12</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="N111" t="s">
         <v>21</v>
       </c>
       <c r="O111" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P111" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q111" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C112" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="D112">
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G112" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="I112">
-        <v>120</v>
-      </c>
-      <c r="J112">
-        <v>92</v>
+        <v>21</v>
+      </c>
+      <c r="J112" t="s">
+        <v>262</v>
       </c>
       <c r="K112">
-        <v>38.6</v>
+        <v>41.2</v>
       </c>
       <c r="L112">
-        <v>10.7</v>
+        <v>16.5</v>
       </c>
       <c r="M112" t="s">
         <v>20</v>
@@ -7839,51 +7875,51 @@
         <v>21</v>
       </c>
       <c r="O112" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="P112" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="Q112" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>323</v>
-      </c>
-      <c r="I113" t="s">
-        <v>262</v>
+        <v>19</v>
+      </c>
+      <c r="I113">
+        <v>21</v>
       </c>
       <c r="J113" t="s">
         <v>262</v>
       </c>
-      <c r="K113" t="s">
-        <v>262</v>
-      </c>
-      <c r="L113" t="s">
-        <v>262</v>
+      <c r="K113">
+        <v>38.9</v>
+      </c>
+      <c r="L113">
+        <v>10.1</v>
       </c>
       <c r="M113" t="s">
         <v>20</v>
@@ -7892,51 +7928,51 @@
         <v>21</v>
       </c>
       <c r="O113" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="Q113" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B114" t="s">
         <v>25</v>
       </c>
       <c r="C114" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F114" t="s">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H114" t="s">
         <v>19</v>
       </c>
-      <c r="I114" t="s">
-        <v>262</v>
-      </c>
-      <c r="J114" t="s">
-        <v>262</v>
-      </c>
-      <c r="K114" t="s">
-        <v>262</v>
-      </c>
-      <c r="L114" t="s">
-        <v>262</v>
+      <c r="I114">
+        <v>121</v>
+      </c>
+      <c r="J114">
+        <v>69</v>
+      </c>
+      <c r="K114" s="3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="L114">
+        <v>12.2</v>
       </c>
       <c r="M114" t="s">
         <v>20</v>
@@ -7954,18 +7990,18 @@
         <v>262</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B115" t="s">
         <v>25</v>
       </c>
       <c r="C115" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E115" t="s">
         <v>262</v>
@@ -7977,19 +8013,19 @@
         <v>48</v>
       </c>
       <c r="H115" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="I115">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="J115">
+        <v>86</v>
+      </c>
+      <c r="K115" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="L115">
         <v>11</v>
-      </c>
-      <c r="K115">
-        <v>42.5</v>
-      </c>
-      <c r="L115">
-        <v>10.8</v>
       </c>
       <c r="M115" t="s">
         <v>20</v>
@@ -7998,27 +8034,27 @@
         <v>21</v>
       </c>
       <c r="O115" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="Q115" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B116" t="s">
         <v>25</v>
       </c>
       <c r="C116" t="s">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E116" t="s">
         <v>262</v>
@@ -8030,19 +8066,19 @@
         <v>48</v>
       </c>
       <c r="H116" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="I116">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="J116">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="K116">
-        <v>44.8</v>
+        <v>38.6</v>
       </c>
       <c r="L116">
-        <v>11.9</v>
+        <v>10.7</v>
       </c>
       <c r="M116" t="s">
         <v>20</v>
@@ -8051,51 +8087,51 @@
         <v>21</v>
       </c>
       <c r="O116" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="P116" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="Q116" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B117" t="s">
         <v>25</v>
       </c>
       <c r="C117" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="G117" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H117" t="s">
-        <v>228</v>
-      </c>
-      <c r="I117">
-        <v>16</v>
-      </c>
-      <c r="J117">
-        <v>7</v>
-      </c>
-      <c r="K117">
-        <v>42.6</v>
-      </c>
-      <c r="L117">
-        <v>11.97</v>
+        <v>323</v>
+      </c>
+      <c r="I117" t="s">
+        <v>262</v>
+      </c>
+      <c r="J117" t="s">
+        <v>262</v>
+      </c>
+      <c r="K117" t="s">
+        <v>262</v>
+      </c>
+      <c r="L117" t="s">
+        <v>262</v>
       </c>
       <c r="M117" t="s">
         <v>20</v>
@@ -8104,51 +8140,51 @@
         <v>21</v>
       </c>
       <c r="O117" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P117" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q117" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B118" t="s">
         <v>25</v>
       </c>
       <c r="C118" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="G118" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H118" t="s">
-        <v>230</v>
-      </c>
-      <c r="I118">
-        <v>17</v>
-      </c>
-      <c r="J118">
-        <v>9</v>
-      </c>
-      <c r="K118">
-        <v>39.4</v>
-      </c>
-      <c r="L118">
-        <v>11.27</v>
+        <v>19</v>
+      </c>
+      <c r="I118" t="s">
+        <v>262</v>
+      </c>
+      <c r="J118" t="s">
+        <v>262</v>
+      </c>
+      <c r="K118" t="s">
+        <v>262</v>
+      </c>
+      <c r="L118" t="s">
+        <v>262</v>
       </c>
       <c r="M118" t="s">
         <v>20</v>
@@ -8157,54 +8193,54 @@
         <v>21</v>
       </c>
       <c r="O118" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="P118" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="Q118" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C119" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F119" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H119" t="s">
         <v>19</v>
       </c>
       <c r="I119">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J119">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K119">
-        <v>39.5</v>
+        <v>42.5</v>
       </c>
       <c r="L119">
-        <v>13.9</v>
+        <v>10.8</v>
       </c>
       <c r="M119" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N119" t="s">
         <v>21</v>
@@ -8219,148 +8255,148 @@
         <v>262</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>226</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120" t="s">
+        <v>262</v>
+      </c>
+      <c r="F120" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" t="s">
+        <v>48</v>
+      </c>
+      <c r="H120" t="s">
+        <v>227</v>
+      </c>
+      <c r="I120">
+        <v>21</v>
+      </c>
+      <c r="J120">
+        <v>11</v>
+      </c>
+      <c r="K120">
+        <v>44.8</v>
+      </c>
+      <c r="L120">
+        <v>11.9</v>
+      </c>
+      <c r="M120" t="s">
+        <v>20</v>
+      </c>
+      <c r="N120" t="s">
+        <v>21</v>
+      </c>
+      <c r="O120" t="s">
+        <v>95</v>
+      </c>
+      <c r="P120" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>226</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="E121" t="s">
+        <v>262</v>
+      </c>
+      <c r="F121" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" t="s">
+        <v>48</v>
+      </c>
+      <c r="H121" t="s">
+        <v>228</v>
+      </c>
+      <c r="I121">
         <v>16</v>
       </c>
-      <c r="C120" t="s">
-        <v>262</v>
-      </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-      <c r="E120" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" t="s">
-        <v>56</v>
-      </c>
-      <c r="G120" t="s">
-        <v>35</v>
-      </c>
-      <c r="H120" t="s">
-        <v>324</v>
-      </c>
-      <c r="I120">
-        <v>22</v>
-      </c>
-      <c r="J120">
-        <v>16</v>
-      </c>
-      <c r="K120">
-        <v>37.5</v>
-      </c>
-      <c r="L120">
-        <v>11.5</v>
-      </c>
-      <c r="M120" t="s">
-        <v>29</v>
-      </c>
-      <c r="N120" t="s">
-        <v>21</v>
-      </c>
-      <c r="O120" t="s">
-        <v>232</v>
-      </c>
-      <c r="P120" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>233</v>
-      </c>
-      <c r="B121" t="s">
-        <v>262</v>
-      </c>
-      <c r="C121" t="s">
-        <v>262</v>
-      </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s">
-        <v>26</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
-      </c>
-      <c r="G121" t="s">
-        <v>18</v>
-      </c>
-      <c r="H121" t="s">
-        <v>325</v>
-      </c>
-      <c r="I121" t="s">
-        <v>262</v>
-      </c>
-      <c r="J121" t="s">
-        <v>262</v>
-      </c>
-      <c r="K121" t="s">
-        <v>262</v>
-      </c>
-      <c r="L121" t="s">
-        <v>262</v>
+      <c r="J121">
+        <v>7</v>
+      </c>
+      <c r="K121">
+        <v>42.6</v>
+      </c>
+      <c r="L121">
+        <v>11.97</v>
       </c>
       <c r="M121" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N121" t="s">
         <v>21</v>
       </c>
       <c r="O121" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="Q121" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17">
       <c r="A122" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B122" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C122" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H122" t="s">
-        <v>19</v>
-      </c>
-      <c r="I122" t="s">
-        <v>262</v>
-      </c>
-      <c r="J122" t="s">
-        <v>262</v>
-      </c>
-      <c r="K122" t="s">
-        <v>262</v>
-      </c>
-      <c r="L122" t="s">
-        <v>262</v>
+        <v>230</v>
+      </c>
+      <c r="I122">
+        <v>17</v>
+      </c>
+      <c r="J122">
+        <v>9</v>
+      </c>
+      <c r="K122">
+        <v>39.4</v>
+      </c>
+      <c r="L122">
+        <v>11.27</v>
       </c>
       <c r="M122" t="s">
         <v>20</v>
@@ -8369,113 +8405,113 @@
         <v>21</v>
       </c>
       <c r="O122" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="Q122" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17">
       <c r="A123" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
       <c r="E123" t="s">
-        <v>256</v>
+        <v>26</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G123" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H123" t="s">
-        <v>326</v>
+        <v>19</v>
       </c>
       <c r="I123">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J123">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K123">
-        <v>39.4</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>261</v>
+        <v>39.5</v>
+      </c>
+      <c r="L123">
+        <v>13.9</v>
       </c>
       <c r="M123" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N123" t="s">
         <v>21</v>
       </c>
-      <c r="O123" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>37</v>
+      <c r="O123" t="s">
+        <v>262</v>
+      </c>
+      <c r="P123" t="s">
+        <v>262</v>
       </c>
       <c r="Q123" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17">
       <c r="A124" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>256</v>
+        <v>26</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G124" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H124" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="I124">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J124">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K124">
         <v>37.5</v>
       </c>
       <c r="L124">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="M124" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N124" t="s">
         <v>21</v>
       </c>
       <c r="O124" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="P124" t="s">
         <v>262</v>
@@ -8484,9 +8520,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17">
       <c r="A125" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B125" t="s">
         <v>262</v>
@@ -8498,28 +8534,28 @@
         <v>2</v>
       </c>
       <c r="E125" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="G125" t="s">
         <v>18</v>
       </c>
       <c r="H125" t="s">
-        <v>19</v>
-      </c>
-      <c r="I125">
-        <v>24</v>
-      </c>
-      <c r="J125">
-        <v>13</v>
-      </c>
-      <c r="K125">
-        <v>42.2</v>
-      </c>
-      <c r="L125">
-        <v>15.1</v>
+        <v>325</v>
+      </c>
+      <c r="I125" t="s">
+        <v>262</v>
+      </c>
+      <c r="J125" t="s">
+        <v>262</v>
+      </c>
+      <c r="K125" t="s">
+        <v>262</v>
+      </c>
+      <c r="L125" t="s">
+        <v>262</v>
       </c>
       <c r="M125" t="s">
         <v>29</v>
@@ -8528,18 +8564,18 @@
         <v>21</v>
       </c>
       <c r="O125" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="P125" t="s">
         <v>262</v>
       </c>
       <c r="Q125" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B126" t="s">
         <v>262</v>
@@ -8551,81 +8587,81 @@
         <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="G126" t="s">
         <v>18</v>
       </c>
       <c r="H126" t="s">
-        <v>302</v>
-      </c>
-      <c r="I126">
-        <v>24</v>
-      </c>
-      <c r="J126">
-        <v>16</v>
-      </c>
-      <c r="K126">
-        <v>40.5</v>
-      </c>
-      <c r="L126">
-        <v>15.6</v>
+        <v>19</v>
+      </c>
+      <c r="I126" t="s">
+        <v>262</v>
+      </c>
+      <c r="J126" t="s">
+        <v>262</v>
+      </c>
+      <c r="K126" t="s">
+        <v>262</v>
+      </c>
+      <c r="L126" t="s">
+        <v>262</v>
       </c>
       <c r="M126" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N126" t="s">
         <v>21</v>
       </c>
       <c r="O126" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="P126" t="s">
         <v>262</v>
       </c>
       <c r="Q126" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C127" t="s">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="D127">
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>18</v>
       </c>
       <c r="H127" t="s">
-        <v>19</v>
+        <v>326</v>
       </c>
       <c r="I127">
-        <v>54</v>
-      </c>
-      <c r="J127" t="s">
-        <v>262</v>
-      </c>
-      <c r="K127" t="s">
-        <v>262</v>
-      </c>
-      <c r="L127" t="s">
-        <v>262</v>
+        <v>10</v>
+      </c>
+      <c r="J127">
+        <v>6</v>
+      </c>
+      <c r="K127">
+        <v>39.4</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="M127" t="s">
         <v>20</v>
@@ -8633,52 +8669,52 @@
       <c r="N127" t="s">
         <v>21</v>
       </c>
-      <c r="O127" t="s">
-        <v>262</v>
-      </c>
-      <c r="P127" t="s">
-        <v>262</v>
+      <c r="O127" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="Q127" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17">
       <c r="A128" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C128" t="s">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="D128">
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>18</v>
       </c>
       <c r="H128" t="s">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="I128">
-        <v>56</v>
-      </c>
-      <c r="J128" t="s">
-        <v>262</v>
-      </c>
-      <c r="K128" t="s">
-        <v>262</v>
-      </c>
-      <c r="L128" t="s">
-        <v>262</v>
+        <v>9</v>
+      </c>
+      <c r="J128">
+        <v>6</v>
+      </c>
+      <c r="K128">
+        <v>37.5</v>
+      </c>
+      <c r="L128">
+        <v>7.8</v>
       </c>
       <c r="M128" t="s">
         <v>20</v>
@@ -8687,18 +8723,18 @@
         <v>21</v>
       </c>
       <c r="O128" t="s">
-        <v>23</v>
+        <v>262</v>
       </c>
       <c r="P128" t="s">
-        <v>23</v>
+        <v>262</v>
       </c>
       <c r="Q128" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B129" t="s">
         <v>262</v>
@@ -8719,19 +8755,19 @@
         <v>18</v>
       </c>
       <c r="H129" t="s">
-        <v>302</v>
+        <v>19</v>
       </c>
       <c r="I129">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="J129">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="K129">
-        <v>44</v>
+        <v>42.2</v>
       </c>
       <c r="L129">
-        <v>12</v>
+        <v>15.1</v>
       </c>
       <c r="M129" t="s">
         <v>29</v>
@@ -8740,18 +8776,18 @@
         <v>21</v>
       </c>
       <c r="O129" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="P129" t="s">
         <v>262</v>
       </c>
       <c r="Q129" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B130" t="s">
         <v>262</v>
@@ -8772,19 +8808,19 @@
         <v>18</v>
       </c>
       <c r="H130" t="s">
-        <v>19</v>
+        <v>302</v>
       </c>
       <c r="I130">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="J130">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="K130">
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="L130">
-        <v>12</v>
+        <v>15.6</v>
       </c>
       <c r="M130" t="s">
         <v>29</v>
@@ -8793,21 +8829,21 @@
         <v>21</v>
       </c>
       <c r="O130" t="s">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c r="P130" t="s">
         <v>262</v>
       </c>
       <c r="Q130" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
         <v>262</v>
@@ -8819,16 +8855,16 @@
         <v>262</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G131" t="s">
         <v>18</v>
       </c>
       <c r="H131" t="s">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="I131">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="J131" t="s">
         <v>262</v>
@@ -8840,27 +8876,27 @@
         <v>262</v>
       </c>
       <c r="M131" t="s">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="N131" t="s">
         <v>21</v>
       </c>
       <c r="O131" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="P131" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="Q131" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
         <v>262</v>
@@ -8872,16 +8908,16 @@
         <v>262</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G132" t="s">
         <v>18</v>
       </c>
       <c r="H132" t="s">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="I132">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="J132" t="s">
         <v>262</v>
@@ -8893,24 +8929,24 @@
         <v>262</v>
       </c>
       <c r="M132" t="s">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="N132" t="s">
         <v>21</v>
       </c>
       <c r="O132" t="s">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="Q132" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B133" t="s">
         <v>262</v>
@@ -8922,25 +8958,25 @@
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F133" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
         <v>18</v>
       </c>
       <c r="H133" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="I133">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="J133">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="K133">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L133">
         <v>12</v>
@@ -8952,18 +8988,18 @@
         <v>21</v>
       </c>
       <c r="O133" t="s">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="Q133" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
       <c r="A134" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B134" t="s">
         <v>262</v>
@@ -8975,10 +9011,10 @@
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
         <v>18</v>
@@ -8987,16 +9023,16 @@
         <v>19</v>
       </c>
       <c r="I134">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="J134">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="K134">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L134">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M134" t="s">
         <v>29</v>
@@ -9014,12 +9050,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17">
       <c r="A135" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="C135" t="s">
         <v>262</v>
@@ -9028,51 +9064,51 @@
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
         <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H135" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I135">
-        <v>63</v>
-      </c>
-      <c r="J135">
-        <v>14</v>
-      </c>
-      <c r="K135">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="J135" t="s">
+        <v>262</v>
+      </c>
+      <c r="K135" t="s">
+        <v>262</v>
       </c>
       <c r="L135" t="s">
         <v>262</v>
       </c>
       <c r="M135" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="N135" t="s">
         <v>21</v>
       </c>
       <c r="O135" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="Q135" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="C136" t="s">
         <v>262</v>
@@ -9081,31 +9117,31 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
         <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H136" t="s">
         <v>19</v>
       </c>
       <c r="I136">
-        <v>59</v>
-      </c>
-      <c r="J136">
-        <v>21</v>
-      </c>
-      <c r="K136">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="J136" t="s">
+        <v>262</v>
+      </c>
+      <c r="K136" t="s">
+        <v>262</v>
       </c>
       <c r="L136" t="s">
         <v>262</v>
       </c>
       <c r="M136" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="N136" t="s">
         <v>21</v>
@@ -9120,9 +9156,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17">
       <c r="A137" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B137" t="s">
         <v>262</v>
@@ -9137,25 +9173,25 @@
         <v>26</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="G137" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H137" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I137">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="J137">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="K137">
-        <v>47.1</v>
+        <v>41</v>
       </c>
       <c r="L137">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="M137" t="s">
         <v>29</v>
@@ -9164,18 +9200,18 @@
         <v>21</v>
       </c>
       <c r="O137" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P137" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q137" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B138" t="s">
         <v>262</v>
@@ -9190,25 +9226,25 @@
         <v>26</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="G138" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H138" t="s">
         <v>19</v>
       </c>
       <c r="I138">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="J138">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="K138">
-        <v>46.1</v>
+        <v>40</v>
       </c>
       <c r="L138">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="M138" t="s">
         <v>29</v>
@@ -9226,12 +9262,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17">
       <c r="A139" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B139" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C139" t="s">
         <v>262</v>
@@ -9243,22 +9279,22 @@
         <v>26</v>
       </c>
       <c r="F139" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H139" t="s">
-        <v>332</v>
-      </c>
-      <c r="I139" t="s">
-        <v>262</v>
-      </c>
-      <c r="J139" t="s">
-        <v>262</v>
-      </c>
-      <c r="K139" t="s">
-        <v>262</v>
+        <v>330</v>
+      </c>
+      <c r="I139">
+        <v>63</v>
+      </c>
+      <c r="J139">
+        <v>14</v>
+      </c>
+      <c r="K139">
+        <v>38</v>
       </c>
       <c r="L139" t="s">
         <v>262</v>
@@ -9270,21 +9306,21 @@
         <v>21</v>
       </c>
       <c r="O139" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="P139" t="s">
         <v>262</v>
       </c>
       <c r="Q139" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B140" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="C140" t="s">
         <v>262</v>
@@ -9296,31 +9332,31 @@
         <v>26</v>
       </c>
       <c r="F140" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H140" t="s">
         <v>19</v>
       </c>
-      <c r="I140" t="s">
-        <v>262</v>
-      </c>
-      <c r="J140" t="s">
-        <v>262</v>
-      </c>
-      <c r="K140" t="s">
-        <v>262</v>
+      <c r="I140">
+        <v>59</v>
+      </c>
+      <c r="J140">
+        <v>21</v>
+      </c>
+      <c r="K140">
+        <v>39</v>
       </c>
       <c r="L140" t="s">
         <v>262</v>
       </c>
       <c r="M140" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="N140" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="O140" t="s">
         <v>262</v>
@@ -9332,7 +9368,220 @@
         <v>262</v>
       </c>
     </row>
+    <row r="141" spans="1:17">
+      <c r="A141" t="s">
+        <v>249</v>
+      </c>
+      <c r="B141" t="s">
+        <v>262</v>
+      </c>
+      <c r="C141" t="s">
+        <v>262</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141" t="s">
+        <v>26</v>
+      </c>
+      <c r="F141" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" t="s">
+        <v>48</v>
+      </c>
+      <c r="H141" t="s">
+        <v>331</v>
+      </c>
+      <c r="I141">
+        <v>16</v>
+      </c>
+      <c r="J141">
+        <v>9</v>
+      </c>
+      <c r="K141">
+        <v>47.1</v>
+      </c>
+      <c r="L141">
+        <v>12.3</v>
+      </c>
+      <c r="M141" t="s">
+        <v>29</v>
+      </c>
+      <c r="N141" t="s">
+        <v>21</v>
+      </c>
+      <c r="O141" t="s">
+        <v>250</v>
+      </c>
+      <c r="P141" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" t="s">
+        <v>249</v>
+      </c>
+      <c r="B142" t="s">
+        <v>262</v>
+      </c>
+      <c r="C142" t="s">
+        <v>262</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>26</v>
+      </c>
+      <c r="F142" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" t="s">
+        <v>48</v>
+      </c>
+      <c r="H142" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142">
+        <v>16</v>
+      </c>
+      <c r="J142">
+        <v>7</v>
+      </c>
+      <c r="K142">
+        <v>46.1</v>
+      </c>
+      <c r="L142">
+        <v>9.4</v>
+      </c>
+      <c r="M142" t="s">
+        <v>29</v>
+      </c>
+      <c r="N142" t="s">
+        <v>21</v>
+      </c>
+      <c r="O142" t="s">
+        <v>262</v>
+      </c>
+      <c r="P142" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" t="s">
+        <v>252</v>
+      </c>
+      <c r="B143" t="s">
+        <v>262</v>
+      </c>
+      <c r="C143" t="s">
+        <v>262</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s">
+        <v>26</v>
+      </c>
+      <c r="F143" t="s">
+        <v>103</v>
+      </c>
+      <c r="G143" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143" t="s">
+        <v>332</v>
+      </c>
+      <c r="I143" t="s">
+        <v>262</v>
+      </c>
+      <c r="J143" t="s">
+        <v>262</v>
+      </c>
+      <c r="K143" t="s">
+        <v>262</v>
+      </c>
+      <c r="L143" t="s">
+        <v>262</v>
+      </c>
+      <c r="M143" t="s">
+        <v>29</v>
+      </c>
+      <c r="N143" t="s">
+        <v>21</v>
+      </c>
+      <c r="O143" t="s">
+        <v>268</v>
+      </c>
+      <c r="P143" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" t="s">
+        <v>252</v>
+      </c>
+      <c r="B144" t="s">
+        <v>262</v>
+      </c>
+      <c r="C144" t="s">
+        <v>262</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144" t="s">
+        <v>26</v>
+      </c>
+      <c r="F144" t="s">
+        <v>103</v>
+      </c>
+      <c r="G144" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" t="s">
+        <v>262</v>
+      </c>
+      <c r="J144" t="s">
+        <v>262</v>
+      </c>
+      <c r="K144" t="s">
+        <v>262</v>
+      </c>
+      <c r="L144" t="s">
+        <v>262</v>
+      </c>
+      <c r="M144" t="s">
+        <v>262</v>
+      </c>
+      <c r="N144" t="s">
+        <v>262</v>
+      </c>
+      <c r="O144" t="s">
+        <v>262</v>
+      </c>
+      <c r="P144" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/human/toc.xlsx
+++ b/data/human/toc.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardoostinelli/Documents/GitHub/LSR1_anhedonia_H/data/human/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennett\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4790179-3DAF-7C42-B18F-0E03E2BAFA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C72FA7-8FD4-4B5C-94B2-DEEFBE66677D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21820" xr2:uid="{61ADF396-BB31-1F4C-9909-04BF21E1C890}"/>
+    <workbookView xWindow="29355" yWindow="1020" windowWidth="26265" windowHeight="13680" xr2:uid="{61ADF396-BB31-1F4C-9909-04BF21E1C890}"/>
   </bookViews>
   <sheets>
-    <sheet name="toc_woa" sheetId="1" r:id="rId1"/>
+    <sheet name="toc" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="282">
   <si>
     <t>Author (Year)</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Croft (1999)</t>
   </si>
   <si>
-    <t>127mg to 361mg</t>
-  </si>
-  <si>
     <t>293mg</t>
   </si>
   <si>
@@ -499,9 +496,6 @@
     <t>90mg</t>
   </si>
   <si>
-    <t>45mg to 90mg</t>
-  </si>
-  <si>
     <t>Raft (1981)</t>
   </si>
   <si>
@@ -511,15 +505,9 @@
     <t>5 weeks</t>
   </si>
   <si>
-    <t>30mg to 90mg</t>
-  </si>
-  <si>
     <t>Rampello (1991)</t>
   </si>
   <si>
-    <t>100mg to 200mg</t>
-  </si>
-  <si>
     <t>Raskin (1972)</t>
   </si>
   <si>
@@ -529,9 +517,6 @@
     <t>45mg</t>
   </si>
   <si>
-    <t>22.5mg to 45mg</t>
-  </si>
-  <si>
     <t>Ravaris (1976)</t>
   </si>
   <si>
@@ -878,13 +863,16 @@
   </si>
   <si>
     <t>309mg</t>
+  </si>
+  <si>
+    <t>100mh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1386,7 +1374,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1398,6 +1386,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1775,21 +1764,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FA754B-276C-D14C-B6A7-BF427E08ACB2}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.4609375" customWidth="1"/>
+    <col min="3" max="3" width="18.69140625" customWidth="1"/>
+    <col min="5" max="5" width="26.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1838,22 +1827,22 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -1865,13 +1854,13 @@
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1879,7 +1868,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1891,10 +1880,10 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
@@ -1903,16 +1892,16 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1920,22 +1909,22 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F4">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -1950,10 +1939,10 @@
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1988,13 +1977,13 @@
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2029,13 +2018,13 @@
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2070,13 +2059,13 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2111,13 +2100,13 @@
         <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2143,22 +2132,22 @@
         <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2172,7 +2161,7 @@
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F10">
         <v>149</v>
@@ -2196,10 +2185,10 @@
         <v>42</v>
       </c>
       <c r="M10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2231,16 +2220,16 @@
         <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2248,13 +2237,13 @@
         <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F12">
         <v>58</v>
@@ -2272,16 +2261,16 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L12" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -2289,7 +2278,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -2313,16 +2302,16 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2342,28 +2331,28 @@
         <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2383,28 +2372,28 @@
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L15" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2436,16 +2425,16 @@
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2459,7 +2448,7 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F17">
         <v>198</v>
@@ -2480,18 +2469,18 @@
         <v>53</v>
       </c>
       <c r="L17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
@@ -2518,21 +2507,21 @@
         <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -2541,7 +2530,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F19">
         <v>89</v>
@@ -2568,15 +2557,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -2594,36 +2583,36 @@
         <v>43.33</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F21">
         <v>23</v>
@@ -2647,18 +2636,18 @@
         <v>59</v>
       </c>
       <c r="M21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>14</v>
@@ -2682,30 +2671,30 @@
         <v>17</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F23" s="5">
         <v>34</v>
@@ -2723,16 +2712,16 @@
         <v>17</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2740,13 +2729,13 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F24">
         <v>18</v>
@@ -2764,7 +2753,7 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s">
         <v>62</v>
@@ -2773,7 +2762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -2781,7 +2770,7 @@
         <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -2805,7 +2794,7 @@
         <v>17</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>64</v>
@@ -2814,7 +2803,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2822,7 +2811,7 @@
         <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -2846,16 +2835,16 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M26" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2863,13 +2852,13 @@
         <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F27">
         <v>111</v>
@@ -2890,15 +2879,15 @@
         <v>68</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -2907,10 +2896,10 @@
         <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E28" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F28">
         <v>141</v>
@@ -2928,18 +2917,18 @@
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -2948,7 +2937,7 @@
         <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E29" t="s">
         <v>15</v>
@@ -2969,18 +2958,18 @@
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -2989,10 +2978,10 @@
         <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E30" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F30">
         <v>138</v>
@@ -3010,18 +2999,18 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -3030,7 +3019,7 @@
         <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -3051,16 +3040,16 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L31" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3092,16 +3081,16 @@
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L32" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3115,7 +3104,7 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F33">
         <v>122</v>
@@ -3142,7 +3131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3174,16 +3163,16 @@
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L34" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -3197,7 +3186,7 @@
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F35">
         <v>150</v>
@@ -3218,13 +3207,13 @@
         <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -3232,7 +3221,7 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D36" t="s">
         <v>40</v>
@@ -3244,10 +3233,10 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H36" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I36" t="s">
         <v>16</v>
@@ -3256,16 +3245,16 @@
         <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L36" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -3273,7 +3262,7 @@
         <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
@@ -3285,10 +3274,10 @@
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H37" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I37" t="s">
         <v>16</v>
@@ -3306,7 +3295,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -3314,7 +3303,7 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -3326,10 +3315,10 @@
         <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I38" t="s">
         <v>16</v>
@@ -3347,7 +3336,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -3355,7 +3344,7 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s">
         <v>40</v>
@@ -3367,10 +3356,10 @@
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H39" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I39" t="s">
         <v>16</v>
@@ -3388,12 +3377,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C40" t="s">
         <v>70</v>
@@ -3420,21 +3409,21 @@
         <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L40" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
         <v>70</v>
@@ -3443,7 +3432,7 @@
         <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F41">
         <v>120</v>
@@ -3464,27 +3453,27 @@
         <v>64</v>
       </c>
       <c r="L41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M41" t="s">
         <v>81</v>
       </c>
-      <c r="M41" t="s">
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" t="s">
         <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42">
         <v>68</v>
@@ -3502,24 +3491,24 @@
         <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L42" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>211</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
@@ -3543,24 +3532,24 @@
         <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L43" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M43" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
         <v>51</v>
@@ -3584,30 +3573,30 @@
         <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L44" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
         <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F45">
         <v>152</v>
@@ -3625,30 +3614,30 @@
         <v>41</v>
       </c>
       <c r="K45" t="s">
+        <v>88</v>
+      </c>
+      <c r="L45" t="s">
+        <v>206</v>
+      </c>
+      <c r="M45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
         <v>89</v>
-      </c>
-      <c r="L45" t="s">
-        <v>211</v>
-      </c>
-      <c r="M45" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F46">
         <v>132</v>
@@ -3666,24 +3655,24 @@
         <v>41</v>
       </c>
       <c r="K46" t="s">
+        <v>88</v>
+      </c>
+      <c r="L46" t="s">
+        <v>88</v>
+      </c>
+      <c r="M46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
         <v>89</v>
-      </c>
-      <c r="L46" t="s">
-        <v>89</v>
-      </c>
-      <c r="M46" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>90</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -3707,24 +3696,24 @@
         <v>41</v>
       </c>
       <c r="K47" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L47" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C48" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s">
         <v>28</v>
@@ -3742,36 +3731,36 @@
         <v>49</v>
       </c>
       <c r="I48" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L48" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M48" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F49">
         <v>44</v>
@@ -3789,27 +3778,27 @@
         <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L49" t="s">
         <v>58</v>
       </c>
       <c r="M49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
         <v>15</v>
@@ -3830,27 +3819,27 @@
         <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L50" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
@@ -3871,24 +3860,24 @@
         <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L51" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -3897,13 +3886,13 @@
         <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G52" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H52" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I52" t="s">
         <v>23</v>
@@ -3912,39 +3901,39 @@
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L52" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F53" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G53" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H53" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I53" t="s">
         <v>23</v>
@@ -3953,18 +3942,18 @@
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L53" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>99</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -3976,7 +3965,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F54">
         <v>52</v>
@@ -3997,15 +3986,15 @@
         <v>62</v>
       </c>
       <c r="L54" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M54" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
@@ -4017,7 +4006,7 @@
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F55">
         <v>23</v>
@@ -4026,27 +4015,27 @@
         <v>13</v>
       </c>
       <c r="H55" s="3">
-        <v>37.799999999999898</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="I55" t="s">
         <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L55" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M55" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
@@ -4076,21 +4065,21 @@
         <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L56" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M56" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s">
         <v>103</v>
-      </c>
-      <c r="B57" t="s">
-        <v>104</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -4117,21 +4106,21 @@
         <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L57" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M57" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
         <v>103</v>
-      </c>
-      <c r="B58" t="s">
-        <v>104</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -4140,7 +4129,7 @@
         <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F58">
         <v>45</v>
@@ -4158,21 +4147,21 @@
         <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M58" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
         <v>103</v>
-      </c>
-      <c r="B59" t="s">
-        <v>104</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -4181,7 +4170,7 @@
         <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F59">
         <v>40</v>
@@ -4205,12 +4194,12 @@
         <v>19</v>
       </c>
       <c r="M59" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -4234,24 +4223,24 @@
         <v>40.700000000000003</v>
       </c>
       <c r="I60" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J60" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K60" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L60" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M60" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -4263,7 +4252,7 @@
         <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F61">
         <v>119</v>
@@ -4278,21 +4267,21 @@
         <v>16</v>
       </c>
       <c r="J61" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L61" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M61" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
@@ -4304,7 +4293,7 @@
         <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62">
         <v>120</v>
@@ -4319,21 +4308,21 @@
         <v>16</v>
       </c>
       <c r="J62" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L62" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M62" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -4345,7 +4334,7 @@
         <v>40</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F63">
         <v>120</v>
@@ -4360,21 +4349,21 @@
         <v>16</v>
       </c>
       <c r="J63" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L63" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M63" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -4386,7 +4375,7 @@
         <v>40</v>
       </c>
       <c r="E64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F64">
         <v>119</v>
@@ -4395,27 +4384,27 @@
         <v>66</v>
       </c>
       <c r="H64" s="3">
-        <v>38.799999999999898</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="I64" t="s">
         <v>16</v>
       </c>
       <c r="J64" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K64" t="s">
+        <v>114</v>
+      </c>
+      <c r="L64" t="s">
+        <v>206</v>
+      </c>
+      <c r="M64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
         <v>115</v>
-      </c>
-      <c r="L64" t="s">
-        <v>211</v>
-      </c>
-      <c r="M64" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>116</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -4427,7 +4416,7 @@
         <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F65">
         <v>152</v>
@@ -4445,18 +4434,18 @@
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M65" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -4480,24 +4469,24 @@
         <v>38.200000000000003</v>
       </c>
       <c r="I66" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L66" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M66" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -4509,7 +4498,7 @@
         <v>40</v>
       </c>
       <c r="E67" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F67">
         <v>150</v>
@@ -4527,24 +4516,24 @@
         <v>17</v>
       </c>
       <c r="K67" t="s">
+        <v>117</v>
+      </c>
+      <c r="L67" t="s">
+        <v>117</v>
+      </c>
+      <c r="M67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
         <v>118</v>
       </c>
-      <c r="L67" t="s">
-        <v>118</v>
-      </c>
-      <c r="M67" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>119</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>120</v>
-      </c>
-      <c r="C68" t="s">
-        <v>121</v>
       </c>
       <c r="D68" t="s">
         <v>40</v>
@@ -4562,36 +4551,36 @@
         <v>18.100000000000001</v>
       </c>
       <c r="I68" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J68" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K68" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L68" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M68" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
         <v>119</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>120</v>
-      </c>
-      <c r="C69" t="s">
-        <v>121</v>
       </c>
       <c r="D69" t="s">
         <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F69">
         <v>29</v>
@@ -4609,21 +4598,21 @@
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L69" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M69" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>50</v>
@@ -4650,21 +4639,21 @@
         <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L70" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M70" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>50</v>
@@ -4673,7 +4662,7 @@
         <v>40</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F71" s="4">
         <v>188</v>
@@ -4691,19 +4680,19 @@
         <v>17</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>50</v>
@@ -4712,7 +4701,7 @@
         <v>40</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F72" s="4">
         <v>189</v>
@@ -4730,21 +4719,21 @@
         <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L72" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M72" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>50</v>
@@ -4753,7 +4742,7 @@
         <v>40</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F73" s="4">
         <v>204</v>
@@ -4771,27 +4760,27 @@
         <v>17</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>15</v>
@@ -4812,30 +4801,30 @@
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L74" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F75" s="4">
         <v>211</v>
@@ -4853,30 +4842,30 @@
         <v>17</v>
       </c>
       <c r="K75" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M75" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="s">
         <v>122</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M75" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>123</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F76">
         <v>156</v>
@@ -4888,30 +4877,30 @@
         <v>42.1</v>
       </c>
       <c r="I76" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J76" t="s">
         <v>17</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L76" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M76" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
         <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
@@ -4929,36 +4918,36 @@
         <v>41.2</v>
       </c>
       <c r="I77" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J77" t="s">
         <v>17</v>
       </c>
       <c r="K77" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L77" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M77" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E78" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F78">
         <v>36</v>
@@ -4970,33 +4959,33 @@
         <v>38.700000000000003</v>
       </c>
       <c r="I78" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J78" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K78" t="s">
+        <v>126</v>
+      </c>
+      <c r="L78" t="s">
+        <v>206</v>
+      </c>
+      <c r="M78" t="s">
         <v>127</v>
       </c>
-      <c r="L78" t="s">
-        <v>211</v>
-      </c>
-      <c r="M78" t="s">
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" t="s">
+        <v>206</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" t="s">
-        <v>211</v>
-      </c>
-      <c r="D79" t="s">
-        <v>129</v>
       </c>
       <c r="E79" t="s">
         <v>15</v>
@@ -5008,30 +4997,30 @@
         <v>22</v>
       </c>
       <c r="H79" s="3">
-        <v>40.299999999999898</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="I79" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J79" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K79" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L79" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M79" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="2" customFormat="1">
       <c r="A80" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>50</v>
@@ -5040,7 +5029,7 @@
         <v>40</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F80" s="4">
         <v>139</v>
@@ -5058,21 +5047,21 @@
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L80" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M80" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="2" customFormat="1">
       <c r="A81" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>50</v>
@@ -5081,7 +5070,7 @@
         <v>40</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F81" s="4">
         <v>135</v>
@@ -5105,21 +5094,21 @@
         <v>62</v>
       </c>
       <c r="M81" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>15</v>
@@ -5140,30 +5129,30 @@
         <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L82" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M82" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F83" s="4">
         <v>190</v>
@@ -5181,30 +5170,30 @@
         <v>17</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M83" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="2" customFormat="1" ht="16" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F84" s="4">
         <v>188</v>
@@ -5222,24 +5211,24 @@
         <v>17</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M84" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
@@ -5251,10 +5240,10 @@
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H85" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I85" t="s">
         <v>23</v>
@@ -5263,24 +5252,24 @@
         <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L85" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M85" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C86" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -5292,10 +5281,10 @@
         <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H86" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I86" t="s">
         <v>23</v>
@@ -5304,24 +5293,24 @@
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L86" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
         <v>132</v>
       </c>
-      <c r="B87" t="s">
-        <v>133</v>
-      </c>
       <c r="C87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -5345,30 +5334,30 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M87" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" t="s">
         <v>132</v>
       </c>
-      <c r="B88" t="s">
-        <v>133</v>
-      </c>
       <c r="C88" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F88">
         <v>22</v>
@@ -5386,27 +5375,27 @@
         <v>17</v>
       </c>
       <c r="K88" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L88" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M88" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C89" t="s">
         <v>50</v>
       </c>
       <c r="D89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E89" t="s">
         <v>15</v>
@@ -5427,30 +5416,30 @@
         <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L89" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M89" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C90" t="s">
         <v>50</v>
       </c>
       <c r="D90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F90">
         <v>134</v>
@@ -5468,27 +5457,27 @@
         <v>17</v>
       </c>
       <c r="K90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
         <v>136</v>
       </c>
-      <c r="M90" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
         <v>137</v>
-      </c>
-      <c r="B91" t="s">
-        <v>138</v>
       </c>
       <c r="C91" t="s">
         <v>50</v>
       </c>
       <c r="D91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E91" t="s">
         <v>15</v>
@@ -5509,30 +5498,30 @@
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L91" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M91" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" t="s">
         <v>137</v>
-      </c>
-      <c r="B92" t="s">
-        <v>138</v>
       </c>
       <c r="C92" t="s">
         <v>50</v>
       </c>
       <c r="D92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F92">
         <v>171</v>
@@ -5550,24 +5539,24 @@
         <v>17</v>
       </c>
       <c r="K92" t="s">
+        <v>138</v>
+      </c>
+      <c r="L92" t="s">
+        <v>138</v>
+      </c>
+      <c r="M92" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" t="s">
         <v>139</v>
       </c>
-      <c r="L92" t="s">
-        <v>139</v>
-      </c>
-      <c r="M92" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" t="s">
         <v>140</v>
-      </c>
-      <c r="B93" t="s">
-        <v>211</v>
-      </c>
-      <c r="C93" t="s">
-        <v>141</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -5591,30 +5580,30 @@
         <v>17</v>
       </c>
       <c r="K93" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L93" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M93" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" t="s">
         <v>140</v>
-      </c>
-      <c r="B94" t="s">
-        <v>211</v>
-      </c>
-      <c r="C94" t="s">
-        <v>141</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F94">
         <v>15</v>
@@ -5623,7 +5612,7 @@
         <v>7</v>
       </c>
       <c r="H94" s="3">
-        <v>33.799999999999898</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I94" t="s">
         <v>23</v>
@@ -5632,24 +5621,24 @@
         <v>17</v>
       </c>
       <c r="K94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L94" t="s">
         <v>24</v>
       </c>
       <c r="M94" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>144</v>
       </c>
       <c r="B95" t="s">
         <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -5670,33 +5659,33 @@
         <v>23</v>
       </c>
       <c r="J95" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K95" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L95" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M95" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B96" t="s">
         <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F96">
         <v>22</v>
@@ -5714,30 +5703,30 @@
         <v>17</v>
       </c>
       <c r="K96" t="s">
+        <v>206</v>
+      </c>
+      <c r="L96" t="s">
         <v>211</v>
       </c>
-      <c r="L96" t="s">
-        <v>216</v>
-      </c>
       <c r="M96" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
+        <v>145</v>
+      </c>
+      <c r="B97" t="s">
         <v>146</v>
       </c>
-      <c r="B97" t="s">
-        <v>147</v>
-      </c>
       <c r="C97" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E97" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F97">
         <v>36</v>
@@ -5746,7 +5735,7 @@
         <v>25</v>
       </c>
       <c r="H97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I97" t="s">
         <v>16</v>
@@ -5755,27 +5744,27 @@
         <v>17</v>
       </c>
       <c r="K97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M97" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" t="s">
         <v>146</v>
       </c>
-      <c r="B98" t="s">
-        <v>147</v>
-      </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E98" t="s">
         <v>15</v>
@@ -5787,7 +5776,7 @@
         <v>25</v>
       </c>
       <c r="H98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I98" t="s">
         <v>16</v>
@@ -5796,30 +5785,30 @@
         <v>17</v>
       </c>
       <c r="K98" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L98" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M98" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D99" t="s">
         <v>28</v>
       </c>
       <c r="E99" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F99">
         <v>35</v>
@@ -5828,7 +5817,7 @@
         <v>21</v>
       </c>
       <c r="H99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I99" t="s">
         <v>16</v>
@@ -5837,24 +5826,24 @@
         <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M99" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s">
         <v>28</v>
@@ -5869,7 +5858,7 @@
         <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I100" t="s">
         <v>16</v>
@@ -5878,30 +5867,30 @@
         <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L100" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M100" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B101" t="s">
         <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D101" t="s">
         <v>51</v>
       </c>
       <c r="E101" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F101">
         <v>63</v>
@@ -5910,33 +5899,33 @@
         <v>36</v>
       </c>
       <c r="H101" s="3">
-        <v>71.599999999999895</v>
-      </c>
-      <c r="I101" t="s">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="I101" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J101" t="s">
-        <v>17</v>
-      </c>
-      <c r="K101" t="s">
-        <v>112</v>
-      </c>
-      <c r="L101" t="s">
-        <v>112</v>
-      </c>
-      <c r="M101" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J101" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M101" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B102" t="s">
         <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D102" t="s">
         <v>51</v>
@@ -5953,72 +5942,72 @@
       <c r="H102">
         <v>71.3</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J102" t="s">
-        <v>17</v>
-      </c>
-      <c r="K102" t="s">
-        <v>211</v>
-      </c>
-      <c r="L102" t="s">
-        <v>211</v>
-      </c>
-      <c r="M102" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J102" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B103" t="s">
         <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F103">
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H103">
         <v>38.9</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="I103" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J103" t="s">
-        <v>17</v>
-      </c>
-      <c r="K103" t="s">
-        <v>158</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M103" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J103" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M103" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B104" t="s">
         <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -6030,118 +6019,118 @@
         <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H104">
         <v>30.1</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J104" t="s">
-        <v>17</v>
-      </c>
-      <c r="K104" t="s">
-        <v>211</v>
-      </c>
-      <c r="L104" t="s">
-        <v>211</v>
-      </c>
-      <c r="M104" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J104" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
         <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E105" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F105" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G105" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H105" t="s">
-        <v>211</v>
-      </c>
-      <c r="I105" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I105" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J105" t="s">
-        <v>17</v>
-      </c>
-      <c r="K105" t="s">
+      <c r="J105" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L105" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" t="s">
         <v>158</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M105" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>160</v>
       </c>
       <c r="B106" t="s">
         <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E106" t="s">
         <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G106" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H106" t="s">
-        <v>211</v>
-      </c>
-      <c r="I106" t="s">
+        <v>206</v>
+      </c>
+      <c r="I106" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J106" t="s">
-        <v>17</v>
-      </c>
-      <c r="K106" t="s">
-        <v>211</v>
-      </c>
-      <c r="L106" t="s">
-        <v>211</v>
-      </c>
-      <c r="M106" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J106" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
         <v>61</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -6153,36 +6142,36 @@
         <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H107" t="s">
-        <v>211</v>
-      </c>
-      <c r="I107" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I107" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J107" t="s">
-        <v>17</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="M107" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J107" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
         <v>61</v>
       </c>
       <c r="C108" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
@@ -6194,30 +6183,30 @@
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H108" t="s">
-        <v>211</v>
-      </c>
-      <c r="I108" t="s">
+        <v>206</v>
+      </c>
+      <c r="I108" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J108" t="s">
-        <v>17</v>
-      </c>
-      <c r="K108" t="s">
-        <v>211</v>
-      </c>
-      <c r="L108" t="s">
-        <v>211</v>
-      </c>
-      <c r="M108" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J108" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L108" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M108" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
         <v>21</v>
@@ -6226,7 +6215,7 @@
         <v>47</v>
       </c>
       <c r="D109" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E109" t="s">
         <v>15</v>
@@ -6235,30 +6224,30 @@
         <v>111</v>
       </c>
       <c r="G109" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H109" t="s">
-        <v>211</v>
-      </c>
-      <c r="I109" t="s">
+        <v>206</v>
+      </c>
+      <c r="I109" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J109" t="s">
-        <v>17</v>
-      </c>
-      <c r="K109" t="s">
-        <v>211</v>
-      </c>
-      <c r="L109" t="s">
-        <v>211</v>
-      </c>
-      <c r="M109" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J109" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L109" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M109" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B110" t="s">
         <v>21</v>
@@ -6267,10 +6256,10 @@
         <v>47</v>
       </c>
       <c r="D110" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E110" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F110">
         <v>110</v>
@@ -6279,115 +6268,115 @@
         <v>72</v>
       </c>
       <c r="H110" t="s">
-        <v>167</v>
-      </c>
-      <c r="I110" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I110" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J110" t="s">
-        <v>17</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M110" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J110" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L110" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M110" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C111" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F111">
         <v>21</v>
       </c>
       <c r="G111" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H111">
         <v>43.1</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J111" t="s">
-        <v>17</v>
-      </c>
-      <c r="K111" t="s">
-        <v>173</v>
-      </c>
-      <c r="L111" t="s">
-        <v>173</v>
-      </c>
-      <c r="M111" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I111" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B112" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C112" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F112">
         <v>21</v>
       </c>
       <c r="G112" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H112">
         <v>41.2</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J112" t="s">
-        <v>17</v>
-      </c>
-      <c r="K112" t="s">
-        <v>175</v>
-      </c>
-      <c r="L112" t="s">
-        <v>175</v>
-      </c>
-      <c r="M112" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J112" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L112" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M112" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C113" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D113" t="s">
         <v>14</v>
@@ -6399,7 +6388,7 @@
         <v>21</v>
       </c>
       <c r="G113" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H113">
         <v>38.9</v>
@@ -6411,18 +6400,18 @@
         <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L113" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M113" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B114" t="s">
         <v>21</v>
@@ -6452,18 +6441,18 @@
         <v>17</v>
       </c>
       <c r="K114" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L114" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M114" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B115" t="s">
         <v>21</v>
@@ -6475,7 +6464,7 @@
         <v>40</v>
       </c>
       <c r="E115" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F115">
         <v>121</v>
@@ -6493,18 +6482,18 @@
         <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L115" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M115" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B116" t="s">
         <v>21</v>
@@ -6516,7 +6505,7 @@
         <v>40</v>
       </c>
       <c r="E116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F116">
         <v>120</v>
@@ -6534,39 +6523,39 @@
         <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M116" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B117" t="s">
         <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D117" t="s">
         <v>28</v>
       </c>
       <c r="E117" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F117" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G117" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H117" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I117" t="s">
         <v>16</v>
@@ -6575,24 +6564,24 @@
         <v>17</v>
       </c>
       <c r="K117" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L117" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M117" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
         <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
         <v>28</v>
@@ -6601,13 +6590,13 @@
         <v>15</v>
       </c>
       <c r="F118" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G118" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H118" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I118" t="s">
         <v>16</v>
@@ -6616,24 +6605,24 @@
         <v>17</v>
       </c>
       <c r="K118" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L118" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M118" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B119" t="s">
         <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D119" t="s">
         <v>40</v>
@@ -6657,30 +6646,30 @@
         <v>17</v>
       </c>
       <c r="K119" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L119" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M119" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B120" t="s">
         <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D120" t="s">
         <v>40</v>
       </c>
       <c r="E120" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F120">
         <v>21</v>
@@ -6704,24 +6693,24 @@
         <v>79</v>
       </c>
       <c r="M120" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B121" t="s">
         <v>21</v>
       </c>
       <c r="C121" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D121" t="s">
         <v>40</v>
       </c>
       <c r="E121" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F121">
         <v>16</v>
@@ -6739,30 +6728,30 @@
         <v>17</v>
       </c>
       <c r="K121" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L121" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M121" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B122" t="s">
         <v>21</v>
       </c>
       <c r="C122" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D122" t="s">
         <v>40</v>
       </c>
       <c r="E122" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F122">
         <v>17</v>
@@ -6780,24 +6769,24 @@
         <v>17</v>
       </c>
       <c r="K122" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L122" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M122" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B123" t="s">
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D123" t="s">
         <v>28</v>
@@ -6821,30 +6810,30 @@
         <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L123" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M123" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B124" t="s">
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D124" t="s">
         <v>28</v>
       </c>
       <c r="E124" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F124">
         <v>22</v>
@@ -6862,39 +6851,39 @@
         <v>17</v>
       </c>
       <c r="K124" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L124" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M124" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C125" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F125" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G125" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H125" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I125" t="s">
         <v>23</v>
@@ -6902,25 +6891,25 @@
       <c r="J125" t="s">
         <v>17</v>
       </c>
-      <c r="K125" t="s">
-        <v>190</v>
-      </c>
-      <c r="L125" t="s">
-        <v>211</v>
-      </c>
-      <c r="M125" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K125" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M125" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B126" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C126" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D126" t="s">
         <v>14</v>
@@ -6929,13 +6918,13 @@
         <v>15</v>
       </c>
       <c r="F126" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G126" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H126" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I126" t="s">
         <v>16</v>
@@ -6943,19 +6932,19 @@
       <c r="J126" t="s">
         <v>17</v>
       </c>
-      <c r="K126" t="s">
-        <v>211</v>
-      </c>
-      <c r="L126" t="s">
-        <v>211</v>
-      </c>
-      <c r="M126" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K126" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M126" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B127" t="s">
         <v>21</v>
@@ -6967,7 +6956,7 @@
         <v>14</v>
       </c>
       <c r="E127" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F127">
         <v>10</v>
@@ -6984,19 +6973,19 @@
       <c r="J127" t="s">
         <v>17</v>
       </c>
-      <c r="K127" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="L127" s="1" t="s">
+      <c r="K127" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L127" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M127" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M127" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B128" t="s">
         <v>21</v>
@@ -7025,25 +7014,25 @@
       <c r="J128" t="s">
         <v>17</v>
       </c>
-      <c r="K128" t="s">
-        <v>211</v>
-      </c>
-      <c r="L128" t="s">
-        <v>211</v>
-      </c>
-      <c r="M128" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K128" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M128" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B129" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C129" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D129" t="s">
         <v>14</v>
@@ -7066,31 +7055,31 @@
       <c r="J129" t="s">
         <v>17</v>
       </c>
-      <c r="K129" t="s">
-        <v>211</v>
-      </c>
-      <c r="L129" t="s">
-        <v>211</v>
-      </c>
-      <c r="M129" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K129" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M129" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B130" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C130" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D130" t="s">
         <v>14</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F130">
         <v>24</v>
@@ -7111,21 +7100,21 @@
         <v>58</v>
       </c>
       <c r="L130" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M130" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B131" t="s">
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D131" t="s">
         <v>14</v>
@@ -7137,10 +7126,10 @@
         <v>54</v>
       </c>
       <c r="G131" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H131" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I131" t="s">
         <v>16</v>
@@ -7149,39 +7138,39 @@
         <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L131" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M131" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B132" t="s">
         <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D132" t="s">
         <v>14</v>
       </c>
       <c r="E132" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F132">
         <v>56</v>
       </c>
       <c r="G132" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H132" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I132" t="s">
         <v>16</v>
@@ -7196,24 +7185,24 @@
         <v>19</v>
       </c>
       <c r="M132" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B133" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C133" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D133" t="s">
         <v>14</v>
       </c>
       <c r="E133" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F133">
         <v>164</v>
@@ -7234,21 +7223,21 @@
         <v>58</v>
       </c>
       <c r="L133" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M133" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B134" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C134" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D134" t="s">
         <v>14</v>
@@ -7272,65 +7261,65 @@
         <v>17</v>
       </c>
       <c r="K134" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L134" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M134" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B135" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C135" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D135" t="s">
         <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F135">
         <v>25</v>
       </c>
       <c r="G135" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H135" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I135" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J135" t="s">
         <v>17</v>
       </c>
       <c r="K135" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L135" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M135" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B136" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C136" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D136" t="s">
         <v>14</v>
@@ -7342,42 +7331,42 @@
         <v>25</v>
       </c>
       <c r="G136" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H136" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I136" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J136" t="s">
         <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L136" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M136" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B137" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C137" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D137" t="s">
         <v>14</v>
       </c>
       <c r="E137" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F137">
         <v>108</v>
@@ -7395,24 +7384,24 @@
         <v>17</v>
       </c>
       <c r="K137" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L137" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M137" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B138" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C138" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D138" t="s">
         <v>14</v>
@@ -7436,30 +7425,30 @@
         <v>17</v>
       </c>
       <c r="K138" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L138" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M138" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B139" t="s">
         <v>21</v>
       </c>
       <c r="C139" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D139" t="s">
         <v>28</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F139">
         <v>63</v>
@@ -7477,24 +7466,24 @@
         <v>17</v>
       </c>
       <c r="K139" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L139" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M139" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B140" t="s">
         <v>21</v>
       </c>
       <c r="C140" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D140" t="s">
         <v>28</v>
@@ -7518,30 +7507,30 @@
         <v>17</v>
       </c>
       <c r="K140" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L140" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M140" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B141" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C141" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D141" t="s">
         <v>40</v>
       </c>
       <c r="E141" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F141">
         <v>16</v>
@@ -7559,24 +7548,24 @@
         <v>17</v>
       </c>
       <c r="K141" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L141" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M141" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C142" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D142" t="s">
         <v>40</v>
@@ -7600,39 +7589,39 @@
         <v>17</v>
       </c>
       <c r="K142" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L142" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M142" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B143" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C143" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D143" t="s">
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G143" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H143" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I143" t="s">
         <v>23</v>
@@ -7641,24 +7630,24 @@
         <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L143" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M143" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B144" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C144" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
@@ -7667,28 +7656,28 @@
         <v>15</v>
       </c>
       <c r="F144" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G144" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H144" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I144" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J144" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K144" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L144" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M144" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/human/toc.xlsx
+++ b/data/human/toc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackkennett/Documents/Github/LSR1_anhedonia_H/data/human/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfriedrich\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF60203E-2144-B743-AA13-1484630BBE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CEC204-1981-47EC-97BF-F749F664F494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{61ADF396-BB31-1F4C-9909-04BF21E1C890}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{61ADF396-BB31-1F4C-9909-04BF21E1C890}"/>
   </bookViews>
   <sheets>
     <sheet name="toc" sheetId="1" r:id="rId1"/>
@@ -869,10 +869,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1018,6 +1015,18 @@
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1362,25 +1371,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1758,21 +1765,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FA754B-276C-D14C-B6A7-BF427E08ACB2}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H83" sqref="H83"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.4609375" customWidth="1"/>
+    <col min="3" max="3" width="18.69140625" customWidth="1"/>
+    <col min="5" max="5" width="26.3046875" customWidth="1"/>
+    <col min="8" max="8" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1802,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1813,7 +1821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1835,7 +1843,7 @@
       <c r="G2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1854,7 +1862,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1876,7 +1884,7 @@
       <c r="G3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1895,7 +1903,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1917,7 +1925,7 @@
       <c r="G4" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1936,7 +1944,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1958,7 +1966,7 @@
       <c r="G5" s="2">
         <v>12</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1977,7 +1985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1999,7 +2007,7 @@
       <c r="G6" s="2">
         <v>25</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2018,7 +2026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2040,7 +2048,7 @@
       <c r="G7" s="2">
         <v>22</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2059,7 +2067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2081,7 +2089,7 @@
       <c r="G8" s="2">
         <v>22</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>37</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -2100,7 +2108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2122,7 +2130,7 @@
       <c r="G9" s="2">
         <v>18</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -2141,7 +2149,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2163,7 +2171,7 @@
       <c r="G10" s="2">
         <v>94</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>41.2</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -2182,7 +2190,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -2204,7 +2212,7 @@
       <c r="G11" s="2">
         <v>99</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>43.5</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -2223,7 +2231,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -2245,7 +2253,7 @@
       <c r="G12" s="2">
         <v>26</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <v>42</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -2264,7 +2272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -2286,7 +2294,7 @@
       <c r="G13" s="2">
         <v>20</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <v>44</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -2305,7 +2313,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -2327,7 +2335,7 @@
       <c r="G14" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -2346,7 +2354,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2368,7 +2376,7 @@
       <c r="G15" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2387,7 +2395,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -2409,7 +2417,7 @@
       <c r="G16" s="2">
         <v>45</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>59.5</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -2428,7 +2436,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -2450,7 +2458,7 @@
       <c r="G17" s="2">
         <v>144</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
         <v>58.2</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -2469,7 +2477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -2491,7 +2499,7 @@
       <c r="G18" s="2">
         <v>53</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="6">
         <v>43.2</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -2510,7 +2518,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -2532,7 +2540,7 @@
       <c r="G19" s="2">
         <v>53</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="6">
         <v>41.4</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -2551,7 +2559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -2573,8 +2581,8 @@
       <c r="G20" s="2">
         <v>16</v>
       </c>
-      <c r="H20" s="3">
-        <v>43.33</v>
+      <c r="H20" s="6">
+        <v>43.3</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>205</v>
@@ -2592,7 +2600,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -2614,8 +2622,8 @@
       <c r="G21" s="2">
         <v>13</v>
       </c>
-      <c r="H21" s="3">
-        <v>51.39</v>
+      <c r="H21" s="6">
+        <v>51.4</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
@@ -2633,89 +2641,89 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:13" ht="18" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>29</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>19</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="6">
         <v>49.5</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="K22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>34</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>25</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <v>48.2</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -2737,7 +2745,7 @@
       <c r="G24" s="2">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="6">
         <v>49.5</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -2756,7 +2764,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
@@ -2778,7 +2786,7 @@
       <c r="G25" s="2">
         <v>11</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="6">
         <v>49</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -2797,7 +2805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
         <v>66</v>
       </c>
@@ -2838,7 +2846,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -2860,7 +2868,7 @@
       <c r="G27" s="2">
         <v>57</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="6">
         <v>41.2</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -2879,7 +2887,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
         <v>270</v>
       </c>
@@ -2901,7 +2909,7 @@
       <c r="G28" s="2">
         <v>85</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="6">
         <v>36.5</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -2920,7 +2928,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
         <v>270</v>
       </c>
@@ -2942,7 +2950,7 @@
       <c r="G29" s="2">
         <v>88</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="6">
         <v>35.1</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -2961,7 +2969,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
         <v>271</v>
       </c>
@@ -2983,7 +2991,7 @@
       <c r="G30" s="2">
         <v>76</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="6">
         <v>37</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -3002,7 +3010,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
         <v>271</v>
       </c>
@@ -3024,7 +3032,7 @@
       <c r="G31" s="2">
         <v>76</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="6">
         <v>37</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -3043,7 +3051,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -3065,7 +3073,7 @@
       <c r="G32" s="2">
         <v>73</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="6">
         <v>38.5</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -3084,7 +3092,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3106,7 +3114,7 @@
       <c r="G33" s="2">
         <v>68</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="6">
         <v>38.1</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -3125,7 +3133,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
@@ -3166,7 +3174,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -3188,7 +3196,7 @@
       <c r="G35" s="2">
         <v>95</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="6">
         <v>36.6</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -3207,7 +3215,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
@@ -3229,7 +3237,7 @@
       <c r="G36" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -3248,7 +3256,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -3270,7 +3278,7 @@
       <c r="G37" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -3289,7 +3297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -3311,7 +3319,7 @@
       <c r="G38" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -3330,7 +3338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
         <v>73</v>
       </c>
@@ -3352,7 +3360,7 @@
       <c r="G39" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -3371,7 +3379,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -3393,7 +3401,7 @@
       <c r="G40" s="2">
         <v>61</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="6">
         <v>37.4</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -3412,7 +3420,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -3434,7 +3442,7 @@
       <c r="G41" s="2">
         <v>61</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="6">
         <v>35.9</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -3453,7 +3461,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -3475,7 +3483,7 @@
       <c r="G42" s="2">
         <v>37</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="6">
         <v>41.9</v>
       </c>
       <c r="I42" s="2" t="s">
@@ -3494,7 +3502,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
@@ -3516,7 +3524,7 @@
       <c r="G43" s="2">
         <v>35</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="6">
         <v>41.9</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -3535,7 +3543,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -3557,7 +3565,7 @@
       <c r="G44" s="2">
         <v>104</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="6">
         <v>14.7</v>
       </c>
       <c r="I44" s="2" t="s">
@@ -3576,7 +3584,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
@@ -3598,7 +3606,7 @@
       <c r="G45" s="2">
         <v>93</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="6">
         <v>14.8</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -3617,7 +3625,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
         <v>89</v>
       </c>
@@ -3639,7 +3647,7 @@
       <c r="G46" s="2">
         <v>81</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="6">
         <v>42</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -3658,7 +3666,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
@@ -3680,7 +3688,7 @@
       <c r="G47" s="2">
         <v>71</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="6">
         <v>42</v>
       </c>
       <c r="I47" s="2" t="s">
@@ -3699,7 +3707,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
@@ -3721,7 +3729,7 @@
       <c r="G48" s="2">
         <v>19</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="6">
         <v>49</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -3740,7 +3748,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="2" t="s">
         <v>90</v>
       </c>
@@ -3762,7 +3770,7 @@
       <c r="G49" s="2">
         <v>30</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="6">
         <v>43.9</v>
       </c>
       <c r="I49" s="2" t="s">
@@ -3781,7 +3789,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -3803,7 +3811,7 @@
       <c r="G50" s="2">
         <v>15</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="6">
         <v>64.7</v>
       </c>
       <c r="I50" s="2" t="s">
@@ -3822,7 +3830,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -3844,7 +3852,7 @@
       <c r="G51" s="2">
         <v>13</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="6">
         <v>65.5</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -3863,7 +3871,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -3885,7 +3893,7 @@
       <c r="G52" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I52" s="2" t="s">
@@ -3904,7 +3912,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -3926,7 +3934,7 @@
       <c r="G53" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -3945,7 +3953,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -3967,7 +3975,7 @@
       <c r="G54" s="2">
         <v>35</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="6">
         <v>36.4</v>
       </c>
       <c r="I54" s="2" t="s">
@@ -3986,7 +3994,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="2" t="s">
         <v>98</v>
       </c>
@@ -4027,7 +4035,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -4049,7 +4057,7 @@
       <c r="G56" s="2">
         <v>31</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="6">
         <v>37.4</v>
       </c>
       <c r="I56" s="2" t="s">
@@ -4068,7 +4076,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="2" t="s">
         <v>102</v>
       </c>
@@ -4090,7 +4098,7 @@
       <c r="G57" s="2">
         <v>20</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="6">
         <v>51.9</v>
       </c>
       <c r="I57" s="2" t="s">
@@ -4109,7 +4117,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
@@ -4131,7 +4139,7 @@
       <c r="G58" s="2">
         <v>18</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="6">
         <v>52.4</v>
       </c>
       <c r="I58" s="2" t="s">
@@ -4150,7 +4158,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="2" t="s">
         <v>102</v>
       </c>
@@ -4172,7 +4180,7 @@
       <c r="G59" s="2">
         <v>18</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="6">
         <v>47.5</v>
       </c>
       <c r="I59" s="2" t="s">
@@ -4191,7 +4199,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
@@ -4232,7 +4240,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="2" t="s">
         <v>107</v>
       </c>
@@ -4254,7 +4262,7 @@
       <c r="G61" s="2">
         <v>77</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="6">
         <v>39.6</v>
       </c>
       <c r="I61" s="2" t="s">
@@ -4273,7 +4281,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62" s="2" t="s">
         <v>107</v>
       </c>
@@ -4295,7 +4303,7 @@
       <c r="G62" s="2">
         <v>65</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="6">
         <v>39.6</v>
       </c>
       <c r="I62" s="2" t="s">
@@ -4314,7 +4322,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="2" t="s">
         <v>107</v>
       </c>
@@ -4336,7 +4344,7 @@
       <c r="G63" s="2">
         <v>70</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="6">
         <v>39.9</v>
       </c>
       <c r="I63" s="2" t="s">
@@ -4355,7 +4363,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64" s="2" t="s">
         <v>107</v>
       </c>
@@ -4396,7 +4404,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13">
       <c r="A65" s="2" t="s">
         <v>115</v>
       </c>
@@ -4418,7 +4426,7 @@
       <c r="G65" s="2">
         <v>90</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="6">
         <v>39.1</v>
       </c>
       <c r="I65" s="2" t="s">
@@ -4437,7 +4445,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13">
       <c r="A66" s="2" t="s">
         <v>115</v>
       </c>
@@ -4478,7 +4486,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13">
       <c r="A67" s="2" t="s">
         <v>115</v>
       </c>
@@ -4519,7 +4527,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13">
       <c r="A68" s="2" t="s">
         <v>118</v>
       </c>
@@ -4560,7 +4568,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69" s="2" t="s">
         <v>118</v>
       </c>
@@ -4582,7 +4590,7 @@
       <c r="G69" s="2">
         <v>0</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="6">
         <v>21.2</v>
       </c>
       <c r="I69" s="2" t="s">
@@ -4601,35 +4609,35 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A70" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="4">
         <v>199</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="4">
         <v>142</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="6">
         <v>41.8</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="J70" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K70" s="2" t="s">
@@ -4642,74 +4650,74 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A71" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="4">
         <v>188</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="4">
         <v>138</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="6">
         <v>41.8</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J71" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71" s="7" t="s">
+      <c r="J71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7" t="s">
+      <c r="L71" s="4"/>
+      <c r="M71" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A72" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="4">
         <v>189</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="4">
         <v>125</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="6">
         <v>44.5</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="9" t="s">
+      <c r="J72" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K72" s="2" t="s">
@@ -4722,76 +4730,76 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A73" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="4">
         <v>204</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="4">
         <v>127</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="6">
         <v>45.6</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J73" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73" s="7" t="s">
+      <c r="J73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L73" s="7" t="s">
+      <c r="L73" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M73" s="7" t="s">
+      <c r="M73" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A74" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="4">
         <v>207</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="4">
         <v>144</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="6">
         <v>71.3</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K74" s="2" t="s">
@@ -4804,48 +4812,48 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+    <row r="75" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A75" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="4">
         <v>211</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="4">
         <v>157</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="6">
         <v>70.900000000000006</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J75" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75" s="7" t="s">
+      <c r="J75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L75" s="7" t="s">
+      <c r="L75" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13">
       <c r="A76" s="2" t="s">
         <v>122</v>
       </c>
@@ -4867,7 +4875,7 @@
       <c r="G76" s="2">
         <v>95</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="6">
         <v>42.1</v>
       </c>
       <c r="I76" s="2" t="s">
@@ -4886,7 +4894,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13">
       <c r="A77" s="2" t="s">
         <v>122</v>
       </c>
@@ -4908,7 +4916,7 @@
       <c r="G77" s="2">
         <v>117</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="6">
         <v>41.2</v>
       </c>
       <c r="I77" s="2" t="s">
@@ -4927,7 +4935,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13">
       <c r="A78" s="2" t="s">
         <v>125</v>
       </c>
@@ -4968,7 +4976,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13">
       <c r="A79" s="2" t="s">
         <v>125</v>
       </c>
@@ -5009,35 +5017,35 @@
         <v>205</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:13" s="1" customFormat="1">
+      <c r="A80" s="4" t="s">
         <v>228</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="4">
         <v>139</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="4">
         <v>96</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="6">
         <v>39.799999999999997</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K80" s="2" t="s">
@@ -5050,76 +5058,76 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
+    <row r="81" spans="1:13" s="1" customFormat="1">
+      <c r="A81" s="4" t="s">
         <v>228</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="4">
         <v>135</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="4">
         <v>89</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="6">
         <v>40</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="I81" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J81" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K81" s="7" t="s">
+      <c r="J81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L81" s="7" t="s">
+      <c r="L81" s="4" t="s">
         <v>62</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A82" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="4">
         <v>186</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G82" s="4">
         <v>85</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="6">
         <v>37.9</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I82" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="J82" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K82" s="2" t="s">
@@ -5132,89 +5140,89 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A83" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="4">
         <v>190</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="4">
         <v>92</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83" s="6">
         <v>36</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I83" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J83" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K83" s="7" t="s">
+      <c r="J83" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="L83" s="7" t="s">
+      <c r="L83" s="4" t="s">
         <v>172</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
+    <row r="84" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1">
+      <c r="A84" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="4">
         <v>188</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="4">
         <v>83</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="6">
         <v>37.5</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I84" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J84" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K84" s="7" t="s">
+      <c r="J84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L84" s="7" t="s">
+      <c r="L84" s="4" t="s">
         <v>105</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13">
       <c r="A85" s="2" t="s">
         <v>129</v>
       </c>
@@ -5236,7 +5244,7 @@
       <c r="G85" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I85" s="2" t="s">
@@ -5255,7 +5263,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13">
       <c r="A86" s="2" t="s">
         <v>129</v>
       </c>
@@ -5277,7 +5285,7 @@
       <c r="G86" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I86" s="2" t="s">
@@ -5296,7 +5304,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13">
       <c r="A87" s="2" t="s">
         <v>131</v>
       </c>
@@ -5318,7 +5326,7 @@
       <c r="G87" s="2">
         <v>12</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="6">
         <v>57</v>
       </c>
       <c r="I87" s="2" t="s">
@@ -5337,7 +5345,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="A88" s="2" t="s">
         <v>131</v>
       </c>
@@ -5359,7 +5367,7 @@
       <c r="G88" s="2">
         <v>15</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="6">
         <v>51</v>
       </c>
       <c r="I88" s="2" t="s">
@@ -5378,7 +5386,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13">
       <c r="A89" s="2" t="s">
         <v>133</v>
       </c>
@@ -5400,7 +5408,7 @@
       <c r="G89" s="2">
         <v>46</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="6">
         <v>41.9</v>
       </c>
       <c r="I89" s="2" t="s">
@@ -5419,7 +5427,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13">
       <c r="A90" s="2" t="s">
         <v>133</v>
       </c>
@@ -5441,7 +5449,7 @@
       <c r="G90" s="2">
         <v>51</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="6">
         <v>43</v>
       </c>
       <c r="I90" s="2" t="s">
@@ -5460,7 +5468,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13">
       <c r="A91" s="2" t="s">
         <v>135</v>
       </c>
@@ -5482,7 +5490,7 @@
       <c r="G91" s="2">
         <v>39</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="6">
         <v>41.8</v>
       </c>
       <c r="I91" s="2" t="s">
@@ -5501,7 +5509,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13">
       <c r="A92" s="2" t="s">
         <v>135</v>
       </c>
@@ -5523,7 +5531,7 @@
       <c r="G92" s="2">
         <v>54</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="6">
         <v>42.4</v>
       </c>
       <c r="I92" s="2" t="s">
@@ -5542,7 +5550,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13">
       <c r="A93" s="2" t="s">
         <v>138</v>
       </c>
@@ -5583,7 +5591,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13">
       <c r="A94" s="2" t="s">
         <v>138</v>
       </c>
@@ -5624,7 +5632,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13">
       <c r="A95" s="2" t="s">
         <v>142</v>
       </c>
@@ -5665,7 +5673,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96" s="2" t="s">
         <v>142</v>
       </c>
@@ -5687,7 +5695,7 @@
       <c r="G96" s="2">
         <v>16</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="6">
         <v>45.2</v>
       </c>
       <c r="I96" s="2" t="s">
@@ -5706,7 +5714,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" s="2" t="s">
         <v>144</v>
       </c>
@@ -5728,7 +5736,7 @@
       <c r="G97" s="2">
         <v>25</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" s="6" t="s">
         <v>146</v>
       </c>
       <c r="I97" s="2" t="s">
@@ -5747,7 +5755,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98" s="2" t="s">
         <v>144</v>
       </c>
@@ -5769,7 +5777,7 @@
       <c r="G98" s="2">
         <v>25</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H98" s="6" t="s">
         <v>147</v>
       </c>
       <c r="I98" s="2" t="s">
@@ -5788,7 +5796,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99" s="2" t="s">
         <v>148</v>
       </c>
@@ -5810,7 +5818,7 @@
       <c r="G99" s="2">
         <v>21</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="H99" s="6" t="s">
         <v>149</v>
       </c>
       <c r="I99" s="2" t="s">
@@ -5829,7 +5837,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100" s="2" t="s">
         <v>148</v>
       </c>
@@ -5851,7 +5859,7 @@
       <c r="G100" s="2">
         <v>18</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H100" s="6" t="s">
         <v>151</v>
       </c>
       <c r="I100" s="2" t="s">
@@ -5870,7 +5878,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="A101" s="2" t="s">
         <v>152</v>
       </c>
@@ -5911,7 +5919,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="A102" s="2" t="s">
         <v>152</v>
       </c>
@@ -5933,7 +5941,7 @@
       <c r="G102" s="2">
         <v>47</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="6">
         <v>71.3</v>
       </c>
       <c r="I102" s="2" t="s">
@@ -5952,7 +5960,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="A103" s="2" t="s">
         <v>154</v>
       </c>
@@ -5974,7 +5982,7 @@
       <c r="G103" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="6">
         <v>38.9</v>
       </c>
       <c r="I103" s="2" t="s">
@@ -5993,7 +6001,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="A104" s="2" t="s">
         <v>154</v>
       </c>
@@ -6015,7 +6023,7 @@
       <c r="G104" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="6">
         <v>30.1</v>
       </c>
       <c r="I104" s="2" t="s">
@@ -6034,7 +6042,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="A105" s="2" t="s">
         <v>157</v>
       </c>
@@ -6056,7 +6064,7 @@
       <c r="G105" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="H105" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I105" s="2" t="s">
@@ -6075,7 +6083,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="A106" s="2" t="s">
         <v>157</v>
       </c>
@@ -6097,7 +6105,7 @@
       <c r="G106" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="H106" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I106" s="2" t="s">
@@ -6116,7 +6124,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="A107" s="2" t="s">
         <v>160</v>
       </c>
@@ -6138,7 +6146,7 @@
       <c r="G107" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="H107" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I107" s="2" t="s">
@@ -6157,7 +6165,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="A108" s="2" t="s">
         <v>160</v>
       </c>
@@ -6179,7 +6187,7 @@
       <c r="G108" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="H108" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I108" s="2" t="s">
@@ -6198,7 +6206,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="A109" s="2" t="s">
         <v>161</v>
       </c>
@@ -6220,7 +6228,7 @@
       <c r="G109" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H109" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I109" s="2" t="s">
@@ -6239,7 +6247,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="A110" s="2" t="s">
         <v>161</v>
       </c>
@@ -6261,7 +6269,7 @@
       <c r="G110" s="2">
         <v>72</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="H110" s="6" t="s">
         <v>162</v>
       </c>
       <c r="I110" s="2" t="s">
@@ -6280,7 +6288,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="A111" s="2" t="s">
         <v>164</v>
       </c>
@@ -6302,7 +6310,7 @@
       <c r="G111" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="6">
         <v>43.1</v>
       </c>
       <c r="I111" s="2" t="s">
@@ -6321,7 +6329,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13">
       <c r="A112" s="2" t="s">
         <v>164</v>
       </c>
@@ -6343,7 +6351,7 @@
       <c r="G112" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="6">
         <v>41.2</v>
       </c>
       <c r="I112" s="2" t="s">
@@ -6362,7 +6370,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13">
       <c r="A113" s="2" t="s">
         <v>164</v>
       </c>
@@ -6384,7 +6392,7 @@
       <c r="G113" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="6">
         <v>38.9</v>
       </c>
       <c r="I113" s="2" t="s">
@@ -6403,7 +6411,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13">
       <c r="A114" s="2" t="s">
         <v>170</v>
       </c>
@@ -6444,7 +6452,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13">
       <c r="A115" s="2" t="s">
         <v>170</v>
       </c>
@@ -6485,7 +6493,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13">
       <c r="A116" s="2" t="s">
         <v>170</v>
       </c>
@@ -6507,7 +6515,7 @@
       <c r="G116" s="2">
         <v>92</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="6">
         <v>38.6</v>
       </c>
       <c r="I116" s="2" t="s">
@@ -6526,7 +6534,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13">
       <c r="A117" s="2" t="s">
         <v>173</v>
       </c>
@@ -6548,7 +6556,7 @@
       <c r="G117" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="H117" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I117" s="2" t="s">
@@ -6567,7 +6575,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13">
       <c r="A118" s="2" t="s">
         <v>173</v>
       </c>
@@ -6589,7 +6597,7 @@
       <c r="G118" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="H118" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I118" s="2" t="s">
@@ -6608,7 +6616,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13">
       <c r="A119" s="2" t="s">
         <v>175</v>
       </c>
@@ -6630,7 +6638,7 @@
       <c r="G119" s="2">
         <v>11</v>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="6">
         <v>42.5</v>
       </c>
       <c r="I119" s="2" t="s">
@@ -6649,7 +6657,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13">
       <c r="A120" s="2" t="s">
         <v>175</v>
       </c>
@@ -6671,7 +6679,7 @@
       <c r="G120" s="2">
         <v>11</v>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="6">
         <v>44.8</v>
       </c>
       <c r="I120" s="2" t="s">
@@ -6690,7 +6698,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13">
       <c r="A121" s="2" t="s">
         <v>175</v>
       </c>
@@ -6712,7 +6720,7 @@
       <c r="G121" s="2">
         <v>7</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="6">
         <v>42.6</v>
       </c>
       <c r="I121" s="2" t="s">
@@ -6731,7 +6739,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13">
       <c r="A122" s="2" t="s">
         <v>175</v>
       </c>
@@ -6753,7 +6761,7 @@
       <c r="G122" s="2">
         <v>9</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="6">
         <v>39.4</v>
       </c>
       <c r="I122" s="2" t="s">
@@ -6772,7 +6780,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13">
       <c r="A123" s="2" t="s">
         <v>181</v>
       </c>
@@ -6794,7 +6802,7 @@
       <c r="G123" s="2">
         <v>13</v>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="6">
         <v>39.5</v>
       </c>
       <c r="I123" s="2" t="s">
@@ -6813,7 +6821,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13">
       <c r="A124" s="2" t="s">
         <v>181</v>
       </c>
@@ -6835,7 +6843,7 @@
       <c r="G124" s="2">
         <v>16</v>
       </c>
-      <c r="H124" s="3">
+      <c r="H124" s="6">
         <v>37.5</v>
       </c>
       <c r="I124" s="2" t="s">
@@ -6854,7 +6862,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13">
       <c r="A125" s="2" t="s">
         <v>183</v>
       </c>
@@ -6876,7 +6884,7 @@
       <c r="G125" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="H125" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I125" s="2" t="s">
@@ -6895,7 +6903,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13">
       <c r="A126" s="2" t="s">
         <v>183</v>
       </c>
@@ -6917,7 +6925,7 @@
       <c r="G126" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H126" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I126" s="2" t="s">
@@ -6936,7 +6944,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13">
       <c r="A127" s="2" t="s">
         <v>185</v>
       </c>
@@ -6958,7 +6966,7 @@
       <c r="G127" s="2">
         <v>6</v>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="6">
         <v>39.4</v>
       </c>
       <c r="I127" s="2" t="s">
@@ -6977,7 +6985,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13">
       <c r="A128" s="2" t="s">
         <v>185</v>
       </c>
@@ -6999,7 +7007,7 @@
       <c r="G128" s="2">
         <v>6</v>
       </c>
-      <c r="H128" s="3">
+      <c r="H128" s="6">
         <v>37.5</v>
       </c>
       <c r="I128" s="2" t="s">
@@ -7018,7 +7026,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13">
       <c r="A129" s="2" t="s">
         <v>187</v>
       </c>
@@ -7040,7 +7048,7 @@
       <c r="G129" s="2">
         <v>13</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="6">
         <v>42.2</v>
       </c>
       <c r="I129" s="2" t="s">
@@ -7059,7 +7067,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13">
       <c r="A130" s="2" t="s">
         <v>187</v>
       </c>
@@ -7081,7 +7089,7 @@
       <c r="G130" s="2">
         <v>16</v>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="6">
         <v>40.5</v>
       </c>
       <c r="I130" s="2" t="s">
@@ -7100,7 +7108,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13">
       <c r="A131" s="2" t="s">
         <v>218</v>
       </c>
@@ -7122,7 +7130,7 @@
       <c r="G131" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H131" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I131" s="2" t="s">
@@ -7141,7 +7149,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13">
       <c r="A132" s="2" t="s">
         <v>218</v>
       </c>
@@ -7163,7 +7171,7 @@
       <c r="G132" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H132" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I132" s="2" t="s">
@@ -7182,7 +7190,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13">
       <c r="A133" s="2" t="s">
         <v>202</v>
       </c>
@@ -7204,7 +7212,7 @@
       <c r="G133" s="2">
         <v>124</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="6">
         <v>44</v>
       </c>
       <c r="I133" s="2" t="s">
@@ -7223,7 +7231,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13">
       <c r="A134" s="2" t="s">
         <v>202</v>
       </c>
@@ -7245,7 +7253,7 @@
       <c r="G134" s="2">
         <v>123</v>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="6">
         <v>42</v>
       </c>
       <c r="I134" s="2" t="s">
@@ -7264,7 +7272,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13">
       <c r="A135" s="2" t="s">
         <v>203</v>
       </c>
@@ -7286,7 +7294,7 @@
       <c r="G135" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H135" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I135" s="2" t="s">
@@ -7305,7 +7313,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13">
       <c r="A136" s="2" t="s">
         <v>203</v>
       </c>
@@ -7327,7 +7335,7 @@
       <c r="G136" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I136" s="2" t="s">
@@ -7346,7 +7354,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13">
       <c r="A137" s="2" t="s">
         <v>204</v>
       </c>
@@ -7368,7 +7376,7 @@
       <c r="G137" s="2">
         <v>73</v>
       </c>
-      <c r="H137" s="3">
+      <c r="H137" s="6">
         <v>41</v>
       </c>
       <c r="I137" s="2" t="s">
@@ -7387,7 +7395,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13">
       <c r="A138" s="2" t="s">
         <v>204</v>
       </c>
@@ -7409,7 +7417,7 @@
       <c r="G138" s="2">
         <v>71</v>
       </c>
-      <c r="H138" s="3">
+      <c r="H138" s="6">
         <v>40</v>
       </c>
       <c r="I138" s="2" t="s">
@@ -7428,7 +7436,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13">
       <c r="A139" s="2" t="s">
         <v>194</v>
       </c>
@@ -7450,7 +7458,7 @@
       <c r="G139" s="2">
         <v>14</v>
       </c>
-      <c r="H139" s="3">
+      <c r="H139" s="6">
         <v>38</v>
       </c>
       <c r="I139" s="2" t="s">
@@ -7469,7 +7477,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13">
       <c r="A140" s="2" t="s">
         <v>194</v>
       </c>
@@ -7491,7 +7499,7 @@
       <c r="G140" s="2">
         <v>21</v>
       </c>
-      <c r="H140" s="3">
+      <c r="H140" s="6">
         <v>39</v>
       </c>
       <c r="I140" s="2" t="s">
@@ -7510,7 +7518,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13">
       <c r="A141" s="2" t="s">
         <v>197</v>
       </c>
@@ -7532,7 +7540,7 @@
       <c r="G141" s="2">
         <v>9</v>
       </c>
-      <c r="H141" s="3">
+      <c r="H141" s="6">
         <v>47.1</v>
       </c>
       <c r="I141" s="2" t="s">
@@ -7551,7 +7559,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13">
       <c r="A142" s="2" t="s">
         <v>197</v>
       </c>
@@ -7573,7 +7581,7 @@
       <c r="G142" s="2">
         <v>7</v>
       </c>
-      <c r="H142" s="3">
+      <c r="H142" s="6">
         <v>46.1</v>
       </c>
       <c r="I142" s="2" t="s">
@@ -7592,7 +7600,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13">
       <c r="A143" s="2" t="s">
         <v>200</v>
       </c>
@@ -7614,7 +7622,7 @@
       <c r="G143" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="H143" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I143" s="2" t="s">
@@ -7633,7 +7641,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13">
       <c r="A144" s="2" t="s">
         <v>200</v>
       </c>
@@ -7655,7 +7663,7 @@
       <c r="G144" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="H144" s="6" t="s">
         <v>205</v>
       </c>
       <c r="I144" s="2" t="s">
@@ -7677,5 +7685,6 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/human/toc.xlsx
+++ b/data/human/toc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfriedrich\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CEC204-1981-47EC-97BF-F749F664F494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845FEBF1-0390-49E2-BB14-985B5FAEB3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{61ADF396-BB31-1F4C-9909-04BF21E1C890}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="282">
   <si>
     <t>Author (Year)</t>
   </si>
@@ -863,12 +863,18 @@
   </si>
   <si>
     <t>150 to 400mg</t>
+  </si>
+  <si>
+    <t>40.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="22">
     <font>
       <sz val="12"/>
@@ -1371,7 +1377,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1388,6 +1394,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1766,10 +1778,10 @@
   <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -2827,8 +2839,8 @@
       <c r="G26" s="2">
         <v>66</v>
       </c>
-      <c r="H26" s="6">
-        <v>40.200000000000003</v>
+      <c r="H26" s="9" t="s">
+        <v>281</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>16</v>
@@ -2909,7 +2921,7 @@
       <c r="G28" s="2">
         <v>85</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="8">
         <v>36.5</v>
       </c>
       <c r="I28" s="2" t="s">

--- a/data/human/toc.xlsx
+++ b/data/human/toc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfriedrich\Documents\GitHub\LSR1_anhedonia_H\data\human\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845FEBF1-0390-49E2-BB14-985B5FAEB3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BAD9C2-8BCF-4D81-B709-CDC2BA5662F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{61ADF396-BB31-1F4C-9909-04BF21E1C890}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="310">
   <si>
     <t>Author (Year)</t>
   </si>
@@ -866,6 +866,90 @@
   </si>
   <si>
     <t>40.2</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>36.6</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>40.7</t>
+  </si>
+  <si>
+    <t>51.9</t>
+  </si>
+  <si>
+    <t>52.4</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>39.6</t>
+  </si>
+  <si>
+    <t>39.9</t>
+  </si>
+  <si>
+    <t>38.8</t>
+  </si>
+  <si>
+    <t>39.1</t>
+  </si>
+  <si>
+    <t>38.2</t>
+  </si>
+  <si>
+    <t>37.2</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>71.3</t>
+  </si>
+  <si>
+    <t>70.9</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>39.8</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>33.8</t>
+  </si>
+  <si>
+    <t>45.2</t>
+  </si>
+  <si>
+    <t>71.6</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>38.6</t>
   </si>
 </sst>
 </file>
@@ -873,7 +957,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1394,7 +1478,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1778,10 +1862,10 @@
   <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -3167,8 +3251,8 @@
       <c r="G34" s="2">
         <v>92</v>
       </c>
-      <c r="H34" s="6">
-        <v>36.700000000000003</v>
+      <c r="H34" s="9" t="s">
+        <v>282</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>23</v>
@@ -3208,8 +3292,8 @@
       <c r="G35" s="2">
         <v>95</v>
       </c>
-      <c r="H35" s="6">
-        <v>36.6</v>
+      <c r="H35" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>23</v>
@@ -3987,8 +4071,8 @@
       <c r="G54" s="2">
         <v>35</v>
       </c>
-      <c r="H54" s="6">
-        <v>36.4</v>
+      <c r="H54" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>23</v>
@@ -4028,8 +4112,8 @@
       <c r="G55" s="2">
         <v>13</v>
       </c>
-      <c r="H55" s="6">
-        <v>37.799999999999997</v>
+      <c r="H55" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>23</v>
@@ -4069,8 +4153,8 @@
       <c r="G56" s="2">
         <v>31</v>
       </c>
-      <c r="H56" s="6">
-        <v>37.4</v>
+      <c r="H56" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>23</v>
@@ -4110,8 +4194,8 @@
       <c r="G57" s="2">
         <v>20</v>
       </c>
-      <c r="H57" s="6">
-        <v>51.9</v>
+      <c r="H57" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>16</v>
@@ -4151,8 +4235,8 @@
       <c r="G58" s="2">
         <v>18</v>
       </c>
-      <c r="H58" s="6">
-        <v>52.4</v>
+      <c r="H58" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>16</v>
@@ -4192,8 +4276,8 @@
       <c r="G59" s="2">
         <v>18</v>
       </c>
-      <c r="H59" s="6">
-        <v>47.5</v>
+      <c r="H59" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>16</v>
@@ -4233,8 +4317,8 @@
       <c r="G60" s="2">
         <v>80</v>
       </c>
-      <c r="H60" s="6">
-        <v>40.700000000000003</v>
+      <c r="H60" s="9" t="s">
+        <v>287</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>205</v>
@@ -4274,8 +4358,8 @@
       <c r="G61" s="2">
         <v>77</v>
       </c>
-      <c r="H61" s="6">
-        <v>39.6</v>
+      <c r="H61" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>16</v>
@@ -4315,8 +4399,8 @@
       <c r="G62" s="2">
         <v>65</v>
       </c>
-      <c r="H62" s="6">
-        <v>39.6</v>
+      <c r="H62" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>16</v>
@@ -4356,8 +4440,8 @@
       <c r="G63" s="2">
         <v>70</v>
       </c>
-      <c r="H63" s="6">
-        <v>39.9</v>
+      <c r="H63" s="9" t="s">
+        <v>292</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>16</v>
@@ -4397,8 +4481,8 @@
       <c r="G64" s="2">
         <v>66</v>
       </c>
-      <c r="H64" s="6">
-        <v>38.799999999999997</v>
+      <c r="H64" s="9" t="s">
+        <v>293</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>16</v>
@@ -4438,8 +4522,8 @@
       <c r="G65" s="2">
         <v>90</v>
       </c>
-      <c r="H65" s="6">
-        <v>39.1</v>
+      <c r="H65" s="9" t="s">
+        <v>294</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>23</v>
@@ -4479,8 +4563,8 @@
       <c r="G66" s="2">
         <v>99</v>
       </c>
-      <c r="H66" s="6">
-        <v>38.200000000000003</v>
+      <c r="H66" s="9" t="s">
+        <v>295</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>205</v>
@@ -4520,8 +4604,8 @@
       <c r="G67" s="2">
         <v>98</v>
       </c>
-      <c r="H67" s="6">
-        <v>37.200000000000003</v>
+      <c r="H67" s="9" t="s">
+        <v>296</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>23</v>
@@ -4561,8 +4645,8 @@
       <c r="G68" s="2">
         <v>0</v>
       </c>
-      <c r="H68" s="6">
-        <v>18.100000000000001</v>
+      <c r="H68" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>205</v>
@@ -4602,8 +4686,8 @@
       <c r="G69" s="2">
         <v>0</v>
       </c>
-      <c r="H69" s="6">
-        <v>21.2</v>
+      <c r="H69" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>16</v>
@@ -4805,8 +4889,8 @@
       <c r="G74" s="4">
         <v>144</v>
       </c>
-      <c r="H74" s="6">
-        <v>71.3</v>
+      <c r="H74" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>23</v>
@@ -4846,8 +4930,8 @@
       <c r="G75" s="4">
         <v>157</v>
       </c>
-      <c r="H75" s="6">
-        <v>70.900000000000006</v>
+      <c r="H75" s="9" t="s">
+        <v>300</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>23</v>
@@ -4969,8 +5053,8 @@
       <c r="G78" s="2">
         <v>25</v>
       </c>
-      <c r="H78" s="6">
-        <v>38.700000000000003</v>
+      <c r="H78" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>205</v>
@@ -5010,8 +5094,8 @@
       <c r="G79" s="2">
         <v>22</v>
       </c>
-      <c r="H79" s="6">
-        <v>40.299999999999997</v>
+      <c r="H79" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>205</v>
@@ -5051,8 +5135,8 @@
       <c r="G80" s="4">
         <v>96</v>
       </c>
-      <c r="H80" s="6">
-        <v>39.799999999999997</v>
+      <c r="H80" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>23</v>
@@ -5584,8 +5668,8 @@
       <c r="G93" s="2">
         <v>14</v>
       </c>
-      <c r="H93" s="6">
-        <v>37.700000000000003</v>
+      <c r="H93" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>23</v>
@@ -5625,8 +5709,8 @@
       <c r="G94" s="2">
         <v>7</v>
       </c>
-      <c r="H94" s="6">
-        <v>33.799999999999997</v>
+      <c r="H94" s="9" t="s">
+        <v>305</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>23</v>
@@ -5666,8 +5750,8 @@
       <c r="G95" s="2">
         <v>17</v>
       </c>
-      <c r="H95" s="6">
-        <v>40.200000000000003</v>
+      <c r="H95" s="9" t="s">
+        <v>281</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>23</v>
@@ -5707,8 +5791,8 @@
       <c r="G96" s="2">
         <v>16</v>
       </c>
-      <c r="H96" s="6">
-        <v>45.2</v>
+      <c r="H96" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>23</v>
@@ -5912,8 +5996,8 @@
       <c r="G101" s="2">
         <v>36</v>
       </c>
-      <c r="H101" s="6">
-        <v>71.599999999999994</v>
+      <c r="H101" s="9" t="s">
+        <v>307</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>16</v>
@@ -5953,8 +6037,8 @@
       <c r="G102" s="2">
         <v>47</v>
       </c>
-      <c r="H102" s="6">
-        <v>71.3</v>
+      <c r="H102" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>16</v>
@@ -6445,8 +6529,8 @@
       <c r="G114" s="2">
         <v>69</v>
       </c>
-      <c r="H114" s="6">
-        <v>40.200000000000003</v>
+      <c r="H114" s="9" t="s">
+        <v>281</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>16</v>
@@ -6486,8 +6570,8 @@
       <c r="G115" s="2">
         <v>86</v>
       </c>
-      <c r="H115" s="6">
-        <v>38.299999999999997</v>
+      <c r="H115" s="9" t="s">
+        <v>308</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>16</v>
@@ -6527,8 +6611,8 @@
       <c r="G116" s="2">
         <v>92</v>
       </c>
-      <c r="H116" s="6">
-        <v>38.6</v>
+      <c r="H116" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>16</v>
